--- a/raw_data/20200818_saline/20200818_Sensor1_Test_6.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_6.xlsx
@@ -1,1052 +1,1468 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE4EBFBF-1CE9-4353-8200-C9AB62B3B4FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>4687.380997</v>
+        <v>4687.3809970000002</v>
       </c>
       <c r="B2" s="1">
-        <v>1.302050</v>
+        <v>1.3020499999999999</v>
       </c>
       <c r="C2" s="1">
-        <v>898.338000</v>
+        <v>898.33799999999997</v>
       </c>
       <c r="D2" s="1">
-        <v>-199.990000</v>
+        <v>-199.99</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>4697.804919</v>
+        <v>4697.8049190000002</v>
       </c>
       <c r="G2" s="1">
-        <v>1.304946</v>
+        <v>1.3049459999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>916.407000</v>
+        <v>916.40700000000004</v>
       </c>
       <c r="I2" s="1">
-        <v>-168.938000</v>
+        <v>-168.93799999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>4708.223385</v>
+        <v>4708.2233850000002</v>
       </c>
       <c r="L2" s="1">
-        <v>1.307840</v>
+        <v>1.3078399999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>939.238000</v>
+        <v>939.23800000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-119.505000</v>
+        <v>-119.505</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
         <v>4719.056012</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.310849</v>
+        <v>1.3108489999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>945.913000</v>
+        <v>945.91300000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-103.220000</v>
+        <v>-103.22</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>4729.907025</v>
+        <v>4729.9070250000004</v>
       </c>
       <c r="V2" s="1">
         <v>1.313863</v>
       </c>
       <c r="W2" s="1">
-        <v>952.373000</v>
+        <v>952.37300000000005</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.061500</v>
+        <v>-88.061499999999995</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>4740.335903</v>
+        <v>4740.3359030000001</v>
       </c>
       <c r="AA2" s="1">
-        <v>1.316760</v>
+        <v>1.3167599999999999</v>
       </c>
       <c r="AB2" s="1">
-        <v>959.313000</v>
+        <v>959.31299999999999</v>
       </c>
       <c r="AC2" s="1">
-        <v>-76.380900</v>
+        <v>-76.380899999999997</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>4750.879331</v>
+        <v>4750.8793310000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>1.319689</v>
+        <v>1.3196889999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>964.010000</v>
+        <v>964.01</v>
       </c>
       <c r="AH2" s="1">
-        <v>-74.231800</v>
+        <v>-74.231800000000007</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>4761.319156</v>
+        <v>4761.3191559999996</v>
       </c>
       <c r="AK2" s="1">
         <v>1.322589</v>
       </c>
       <c r="AL2" s="1">
-        <v>971.160000</v>
+        <v>971.16</v>
       </c>
       <c r="AM2" s="1">
-        <v>-78.765000</v>
+        <v>-78.765000000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>4771.521862</v>
+        <v>4771.5218619999996</v>
       </c>
       <c r="AP2" s="1">
         <v>1.325423</v>
       </c>
       <c r="AQ2" s="1">
-        <v>979.180000</v>
+        <v>979.18</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.270200</v>
+        <v>-90.270200000000003</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>4782.798376</v>
+        <v>4782.7983759999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>1.328555</v>
+        <v>1.3285549999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>988.972000</v>
+        <v>988.97199999999998</v>
       </c>
       <c r="AW2" s="1">
-        <v>-107.650000</v>
+        <v>-107.65</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>4793.968319</v>
+        <v>4793.9683189999996</v>
       </c>
       <c r="AZ2" s="1">
         <v>1.331658</v>
       </c>
       <c r="BA2" s="1">
-        <v>997.134000</v>
+        <v>997.13400000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-122.975000</v>
+        <v>-122.97499999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>4805.086138</v>
+        <v>4805.0861379999997</v>
       </c>
       <c r="BE2" s="1">
         <v>1.334746</v>
       </c>
       <c r="BF2" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG2" s="1">
-        <v>-193.811000</v>
+        <v>-193.81100000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>4815.719837</v>
+        <v>4815.7198369999996</v>
       </c>
       <c r="BJ2" s="1">
-        <v>1.337700</v>
+        <v>1.3376999999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL2" s="1">
-        <v>-309.487000</v>
+        <v>-309.48700000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>4826.830750</v>
+        <v>4826.8307500000001</v>
       </c>
       <c r="BO2" s="1">
         <v>1.340786</v>
       </c>
       <c r="BP2" s="1">
-        <v>1205.230000</v>
+        <v>1205.23</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-493.375000</v>
+        <v>-493.375</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>4837.605344</v>
+        <v>4837.6053439999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>1.343779</v>
+        <v>1.3437790000000001</v>
       </c>
       <c r="BU2" s="1">
-        <v>1324.950000</v>
+        <v>1324.95</v>
       </c>
       <c r="BV2" s="1">
-        <v>-696.176000</v>
+        <v>-696.17600000000004</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>4848.611040</v>
+        <v>4848.6110399999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>1.346836</v>
+        <v>1.3468359999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1459.290000</v>
+        <v>1459.29</v>
       </c>
       <c r="CA2" s="1">
-        <v>-913.365000</v>
+        <v>-913.36500000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>4859.590481</v>
+        <v>4859.5904810000002</v>
       </c>
       <c r="CD2" s="1">
-        <v>1.349886</v>
+        <v>1.3498859999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>1816.090000</v>
+        <v>1816.09</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1428.810000</v>
+        <v>-1428.81</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>4687.772373</v>
+        <v>4687.7723729999998</v>
       </c>
       <c r="B3" s="1">
-        <v>1.302159</v>
+        <v>1.3021590000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>898.467000</v>
+        <v>898.46699999999998</v>
       </c>
       <c r="D3" s="1">
-        <v>-200.077000</v>
+        <v>-200.077</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>4698.148680</v>
+        <v>4698.1486800000002</v>
       </c>
       <c r="G3" s="1">
-        <v>1.305041</v>
+        <v>1.3050409999999999</v>
       </c>
       <c r="H3" s="1">
-        <v>915.892000</v>
+        <v>915.89200000000005</v>
       </c>
       <c r="I3" s="1">
-        <v>-169.066000</v>
+        <v>-169.066</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>4708.608777</v>
+        <v>4708.6087770000004</v>
       </c>
       <c r="L3" s="1">
         <v>1.307947</v>
       </c>
       <c r="M3" s="1">
-        <v>939.343000</v>
+        <v>939.34299999999996</v>
       </c>
       <c r="N3" s="1">
-        <v>-119.634000</v>
+        <v>-119.634</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>4719.754874</v>
+        <v>4719.7548740000002</v>
       </c>
       <c r="Q3" s="1">
         <v>1.311043</v>
       </c>
       <c r="R3" s="1">
-        <v>945.962000</v>
+        <v>945.96199999999999</v>
       </c>
       <c r="S3" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>4730.285933</v>
+        <v>4730.2859330000001</v>
       </c>
       <c r="V3" s="1">
         <v>1.313968</v>
       </c>
       <c r="W3" s="1">
-        <v>952.354000</v>
+        <v>952.35400000000004</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.102600</v>
+        <v>-88.102599999999995</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>4740.677145</v>
+        <v>4740.6771449999997</v>
       </c>
       <c r="AA3" s="1">
-        <v>1.316855</v>
+        <v>1.3168550000000001</v>
       </c>
       <c r="AB3" s="1">
-        <v>959.370000</v>
+        <v>959.37</v>
       </c>
       <c r="AC3" s="1">
-        <v>-76.415100</v>
+        <v>-76.415099999999995</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>4751.242401</v>
+        <v>4751.2424010000004</v>
       </c>
       <c r="AF3" s="1">
-        <v>1.319790</v>
+        <v>1.31979</v>
       </c>
       <c r="AG3" s="1">
-        <v>964.016000</v>
+        <v>964.01599999999996</v>
       </c>
       <c r="AH3" s="1">
-        <v>-74.163400</v>
+        <v>-74.163399999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>4761.669318</v>
+        <v>4761.6693180000002</v>
       </c>
       <c r="AK3" s="1">
         <v>1.322686</v>
       </c>
       <c r="AL3" s="1">
-        <v>971.153000</v>
+        <v>971.15300000000002</v>
       </c>
       <c r="AM3" s="1">
-        <v>-78.773900</v>
+        <v>-78.773899999999998</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>4772.193103</v>
+        <v>4772.1931029999996</v>
       </c>
       <c r="AP3" s="1">
         <v>1.325609</v>
       </c>
       <c r="AQ3" s="1">
-        <v>979.196000</v>
+        <v>979.19600000000003</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.290300</v>
+        <v>-90.290300000000002</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>4783.243287</v>
+        <v>4783.2432870000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>1.328679</v>
+        <v>1.3286789999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>988.982000</v>
+        <v>988.98199999999997</v>
       </c>
       <c r="AW3" s="1">
-        <v>-107.630000</v>
+        <v>-107.63</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>4794.383431</v>
+        <v>4794.3834310000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>1.331773</v>
+        <v>1.3317730000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>997.128000</v>
+        <v>997.12800000000004</v>
       </c>
       <c r="BB3" s="1">
-        <v>-122.994000</v>
+        <v>-122.994</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>4805.446729</v>
+        <v>4805.4467290000002</v>
       </c>
       <c r="BE3" s="1">
         <v>1.334846</v>
       </c>
       <c r="BF3" s="1">
-        <v>1035.010000</v>
+        <v>1035.01</v>
       </c>
       <c r="BG3" s="1">
-        <v>-193.821000</v>
+        <v>-193.821</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>4816.133499</v>
+        <v>4816.1334989999996</v>
       </c>
       <c r="BJ3" s="1">
         <v>1.337815</v>
       </c>
       <c r="BK3" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL3" s="1">
-        <v>-309.477000</v>
+        <v>-309.47699999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>4827.271165</v>
+        <v>4827.2711650000001</v>
       </c>
       <c r="BO3" s="1">
-        <v>1.340909</v>
+        <v>1.3409089999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-493.383000</v>
+        <v>-493.38299999999998</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>4838.047742</v>
+        <v>4838.0477419999997</v>
       </c>
       <c r="BT3" s="1">
-        <v>1.343902</v>
+        <v>1.3439019999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>1324.860000</v>
+        <v>1324.86</v>
       </c>
       <c r="BV3" s="1">
-        <v>-696.216000</v>
+        <v>-696.21600000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>4848.790593</v>
+        <v>4848.7905929999997</v>
       </c>
       <c r="BY3" s="1">
         <v>1.346886</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1459.290000</v>
+        <v>1459.29</v>
       </c>
       <c r="CA3" s="1">
-        <v>-913.544000</v>
+        <v>-913.54399999999998</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>4859.850883</v>
+        <v>4859.8508830000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>1.349959</v>
+        <v>1.3499589999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>1816.310000</v>
+        <v>1816.31</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1430.180000</v>
+        <v>-1430.18</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>4688.102677</v>
+        <v>4688.1026769999999</v>
       </c>
       <c r="B4" s="1">
         <v>1.302251</v>
       </c>
       <c r="C4" s="1">
-        <v>898.383000</v>
+        <v>898.38300000000004</v>
       </c>
       <c r="D4" s="1">
-        <v>-200.166000</v>
+        <v>-200.166</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>4698.835110</v>
+        <v>4698.83511</v>
       </c>
       <c r="G4" s="1">
-        <v>1.305232</v>
+        <v>1.3052319999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>916.387000</v>
+        <v>916.38699999999994</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.828000</v>
+        <v>-168.828</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>4709.299705</v>
+        <v>4709.2997050000004</v>
       </c>
       <c r="L4" s="1">
-        <v>1.308139</v>
+        <v>1.3081389999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>939.196000</v>
+        <v>939.19600000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-119.592000</v>
+        <v>-119.592</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>4720.095130</v>
+        <v>4720.0951299999997</v>
       </c>
       <c r="Q4" s="1">
-        <v>1.311138</v>
+        <v>1.3111379999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>945.968000</v>
+        <v>945.96799999999996</v>
       </c>
       <c r="S4" s="1">
-        <v>-103.233000</v>
+        <v>-103.233</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
         <v>4730.627708</v>
@@ -1055,587 +1471,587 @@
         <v>1.314063</v>
       </c>
       <c r="W4" s="1">
-        <v>952.278000</v>
+        <v>952.27800000000002</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.158600</v>
+        <v>-88.158600000000007</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>4741.022830</v>
+        <v>4741.0228299999999</v>
       </c>
       <c r="AA4" s="1">
         <v>1.316951</v>
       </c>
       <c r="AB4" s="1">
-        <v>959.298000</v>
+        <v>959.298</v>
       </c>
       <c r="AC4" s="1">
-        <v>-76.336200</v>
+        <v>-76.336200000000005</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>4751.898144</v>
+        <v>4751.8981439999998</v>
       </c>
       <c r="AF4" s="1">
-        <v>1.319972</v>
+        <v>1.3199719999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>964.041000</v>
+        <v>964.04100000000005</v>
       </c>
       <c r="AH4" s="1">
-        <v>-74.190700</v>
+        <v>-74.190700000000007</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>4762.095890</v>
+        <v>4762.0958899999996</v>
       </c>
       <c r="AK4" s="1">
-        <v>1.322804</v>
+        <v>1.3228040000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>971.137000</v>
+        <v>971.13699999999994</v>
       </c>
       <c r="AM4" s="1">
-        <v>-78.778000</v>
+        <v>-78.778000000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>4772.609725</v>
+        <v>4772.6097250000003</v>
       </c>
       <c r="AP4" s="1">
         <v>1.325725</v>
       </c>
       <c r="AQ4" s="1">
-        <v>979.177000</v>
+        <v>979.17700000000002</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.303100</v>
+        <v>-90.303100000000001</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>4783.608925</v>
+        <v>4783.6089250000005</v>
       </c>
       <c r="AU4" s="1">
-        <v>1.328780</v>
+        <v>1.3287800000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>988.960000</v>
+        <v>988.96</v>
       </c>
       <c r="AW4" s="1">
-        <v>-107.645000</v>
+        <v>-107.645</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>4794.742076</v>
+        <v>4794.7420760000005</v>
       </c>
       <c r="AZ4" s="1">
-        <v>1.331873</v>
+        <v>1.3318730000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>997.138000</v>
+        <v>997.13800000000003</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.004000</v>
+        <v>-123.004</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>4805.812745</v>
+        <v>4805.8127450000002</v>
       </c>
       <c r="BE4" s="1">
         <v>1.334948</v>
       </c>
       <c r="BF4" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG4" s="1">
-        <v>-193.822000</v>
+        <v>-193.822</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>4816.547660</v>
+        <v>4816.5476600000002</v>
       </c>
       <c r="BJ4" s="1">
-        <v>1.337930</v>
+        <v>1.3379300000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL4" s="1">
-        <v>-309.488000</v>
+        <v>-309.488</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>4827.687309</v>
+        <v>4827.6873089999999</v>
       </c>
       <c r="BO4" s="1">
         <v>1.341024</v>
       </c>
       <c r="BP4" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-493.403000</v>
+        <v>-493.40300000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>4838.487197</v>
+        <v>4838.4871970000004</v>
       </c>
       <c r="BT4" s="1">
-        <v>1.344024</v>
+        <v>1.3440240000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1324.860000</v>
+        <v>1324.86</v>
       </c>
       <c r="BV4" s="1">
-        <v>-696.174000</v>
+        <v>-696.17399999999998</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>4849.226575</v>
+        <v>4849.2265749999997</v>
       </c>
       <c r="BY4" s="1">
-        <v>1.347007</v>
+        <v>1.3470070000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1459.350000</v>
+        <v>1459.35</v>
       </c>
       <c r="CA4" s="1">
-        <v>-913.399000</v>
+        <v>-913.399</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>4860.383123</v>
+        <v>4860.3831229999996</v>
       </c>
       <c r="CD4" s="1">
         <v>1.350106</v>
       </c>
       <c r="CE4" s="1">
-        <v>1815.290000</v>
+        <v>1815.29</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1428.930000</v>
+        <v>-1428.93</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>4688.794597</v>
+        <v>4688.7945970000001</v>
       </c>
       <c r="B5" s="1">
         <v>1.302443</v>
       </c>
       <c r="C5" s="1">
-        <v>898.253000</v>
+        <v>898.25300000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-199.974000</v>
+        <v>-199.97399999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>4699.179830</v>
+        <v>4699.17983</v>
       </c>
       <c r="G5" s="1">
         <v>1.305328</v>
       </c>
       <c r="H5" s="1">
-        <v>916.243000</v>
+        <v>916.24300000000005</v>
       </c>
       <c r="I5" s="1">
-        <v>-169.091000</v>
+        <v>-169.09100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>4709.644952</v>
+        <v>4709.6449519999996</v>
       </c>
       <c r="L5" s="1">
         <v>1.308235</v>
       </c>
       <c r="M5" s="1">
-        <v>939.342000</v>
+        <v>939.34199999999998</v>
       </c>
       <c r="N5" s="1">
-        <v>-119.598000</v>
+        <v>-119.598</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>4720.445346</v>
+        <v>4720.4453460000004</v>
       </c>
       <c r="Q5" s="1">
-        <v>1.311235</v>
+        <v>1.3112349999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>945.946000</v>
+        <v>945.94600000000003</v>
       </c>
       <c r="S5" s="1">
-        <v>-103.237000</v>
+        <v>-103.23699999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>4731.258587</v>
+        <v>4731.2585870000003</v>
       </c>
       <c r="V5" s="1">
         <v>1.314238</v>
       </c>
       <c r="W5" s="1">
-        <v>952.400000</v>
+        <v>952.4</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.065700</v>
+        <v>-88.065700000000007</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>4741.679278</v>
+        <v>4741.6792779999996</v>
       </c>
       <c r="AA5" s="1">
-        <v>1.317133</v>
+        <v>1.3171330000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>959.386000</v>
+        <v>959.38599999999997</v>
       </c>
       <c r="AC5" s="1">
-        <v>-76.461900</v>
+        <v>-76.4619</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>4752.272624</v>
+        <v>4752.2726240000002</v>
       </c>
       <c r="AF5" s="1">
         <v>1.320076</v>
       </c>
       <c r="AG5" s="1">
-        <v>964.034000</v>
+        <v>964.03399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-74.173700</v>
+        <v>-74.173699999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>4762.373657</v>
+        <v>4762.3736570000001</v>
       </c>
       <c r="AK5" s="1">
-        <v>1.322882</v>
+        <v>1.3228819999999999</v>
       </c>
       <c r="AL5" s="1">
-        <v>971.167000</v>
+        <v>971.16700000000003</v>
       </c>
       <c r="AM5" s="1">
-        <v>-78.766200</v>
+        <v>-78.766199999999998</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>4772.986555</v>
+        <v>4772.9865550000004</v>
       </c>
       <c r="AP5" s="1">
-        <v>1.325830</v>
+        <v>1.3258300000000001</v>
       </c>
       <c r="AQ5" s="1">
-        <v>979.174000</v>
+        <v>979.17399999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.265800</v>
+        <v>-90.265799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>4783.972438</v>
+        <v>4783.9724379999998</v>
       </c>
       <c r="AU5" s="1">
         <v>1.328881</v>
       </c>
       <c r="AV5" s="1">
-        <v>988.941000</v>
+        <v>988.94100000000003</v>
       </c>
       <c r="AW5" s="1">
-        <v>-107.633000</v>
+        <v>-107.633</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>4795.101639</v>
+        <v>4795.1016390000004</v>
       </c>
       <c r="AZ5" s="1">
-        <v>1.331973</v>
+        <v>1.3319730000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>997.161000</v>
+        <v>997.16099999999994</v>
       </c>
       <c r="BB5" s="1">
-        <v>-122.989000</v>
+        <v>-122.989</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>4806.231903</v>
+        <v>4806.2319029999999</v>
       </c>
       <c r="BE5" s="1">
         <v>1.335064</v>
       </c>
       <c r="BF5" s="1">
-        <v>1034.960000</v>
+        <v>1034.96</v>
       </c>
       <c r="BG5" s="1">
-        <v>-193.834000</v>
+        <v>-193.834</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>4816.882490</v>
+        <v>4816.88249</v>
       </c>
       <c r="BJ5" s="1">
         <v>1.338023</v>
       </c>
       <c r="BK5" s="1">
-        <v>1099.780000</v>
+        <v>1099.78</v>
       </c>
       <c r="BL5" s="1">
-        <v>-309.474000</v>
+        <v>-309.47399999999999</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>4828.092043</v>
+        <v>4828.0920429999996</v>
       </c>
       <c r="BO5" s="1">
         <v>1.341137</v>
       </c>
       <c r="BP5" s="1">
-        <v>1205.230000</v>
+        <v>1205.23</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-493.404000</v>
+        <v>-493.404</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>4838.914253</v>
+        <v>4838.9142529999999</v>
       </c>
       <c r="BT5" s="1">
-        <v>1.344143</v>
+        <v>1.3441430000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1324.810000</v>
+        <v>1324.81</v>
       </c>
       <c r="BV5" s="1">
-        <v>-696.101000</v>
+        <v>-696.101</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>4849.646687</v>
+        <v>4849.6466870000004</v>
       </c>
       <c r="BY5" s="1">
         <v>1.347124</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1459.300000</v>
+        <v>1459.3</v>
       </c>
       <c r="CA5" s="1">
-        <v>-913.428000</v>
+        <v>-913.428</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>4860.925216</v>
+        <v>4860.9252159999996</v>
       </c>
       <c r="CD5" s="1">
         <v>1.350257</v>
       </c>
       <c r="CE5" s="1">
-        <v>1815.860000</v>
+        <v>1815.86</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1430.940000</v>
+        <v>-1430.94</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>4689.136339</v>
+        <v>4689.1363389999997</v>
       </c>
       <c r="B6" s="1">
         <v>1.302538</v>
       </c>
       <c r="C6" s="1">
-        <v>898.377000</v>
+        <v>898.37699999999995</v>
       </c>
       <c r="D6" s="1">
-        <v>-200.031000</v>
+        <v>-200.03100000000001</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>4699.526533</v>
+        <v>4699.5265330000002</v>
       </c>
       <c r="G6" s="1">
-        <v>1.305424</v>
+        <v>1.3054239999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>916.133000</v>
+        <v>916.13300000000004</v>
       </c>
       <c r="I6" s="1">
-        <v>-169.220000</v>
+        <v>-169.22</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>4709.992121</v>
+        <v>4709.9921210000002</v>
       </c>
       <c r="L6" s="1">
-        <v>1.308331</v>
+        <v>1.3083309999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>939.280000</v>
+        <v>939.28</v>
       </c>
       <c r="N6" s="1">
-        <v>-119.671000</v>
+        <v>-119.67100000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>4721.107497</v>
       </c>
       <c r="Q6" s="1">
-        <v>1.311419</v>
+        <v>1.3114189999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>945.923000</v>
+        <v>945.923</v>
       </c>
       <c r="S6" s="1">
-        <v>-103.236000</v>
+        <v>-103.236</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
         <v>4731.658891</v>
       </c>
       <c r="V6" s="1">
-        <v>1.314350</v>
+        <v>1.3143499999999999</v>
       </c>
       <c r="W6" s="1">
-        <v>952.400000</v>
+        <v>952.4</v>
       </c>
       <c r="X6" s="1">
-        <v>-88.119300</v>
+        <v>-88.119299999999996</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>4742.070381</v>
+        <v>4742.0703810000005</v>
       </c>
       <c r="AA6" s="1">
         <v>1.317242</v>
       </c>
       <c r="AB6" s="1">
-        <v>959.351000</v>
+        <v>959.351</v>
       </c>
       <c r="AC6" s="1">
-        <v>-76.375300</v>
+        <v>-76.375299999999996</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>4752.616319</v>
+        <v>4752.6163189999997</v>
       </c>
       <c r="AF6" s="1">
         <v>1.320171</v>
       </c>
       <c r="AG6" s="1">
-        <v>964.040000</v>
+        <v>964.04</v>
       </c>
       <c r="AH6" s="1">
-        <v>-74.185400</v>
+        <v>-74.185400000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>4762.724828</v>
+        <v>4762.7248280000003</v>
       </c>
       <c r="AK6" s="1">
-        <v>1.322979</v>
+        <v>1.3229789999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>971.141000</v>
+        <v>971.14099999999996</v>
       </c>
       <c r="AM6" s="1">
-        <v>-78.769700</v>
+        <v>-78.7697</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>4773.347109</v>
+        <v>4773.3471090000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>1.325930</v>
+        <v>1.3259300000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>979.198000</v>
+        <v>979.19799999999998</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.300300</v>
+        <v>-90.300299999999993</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
         <v>4784.398005</v>
@@ -1644,103 +2060,103 @@
         <v>1.328999</v>
       </c>
       <c r="AV6" s="1">
-        <v>988.962000</v>
+        <v>988.96199999999999</v>
       </c>
       <c r="AW6" s="1">
-        <v>-107.640000</v>
+        <v>-107.64</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>4795.820374</v>
+        <v>4795.8203739999999</v>
       </c>
       <c r="AZ6" s="1">
-        <v>1.332172</v>
+        <v>1.3321719999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>997.128000</v>
+        <v>997.12800000000004</v>
       </c>
       <c r="BB6" s="1">
-        <v>-122.989000</v>
+        <v>-122.989</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>4806.532472</v>
+        <v>4806.5324719999999</v>
       </c>
       <c r="BE6" s="1">
         <v>1.335148</v>
       </c>
       <c r="BF6" s="1">
-        <v>1034.970000</v>
+        <v>1034.97</v>
       </c>
       <c r="BG6" s="1">
-        <v>-193.824000</v>
+        <v>-193.82400000000001</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>4817.257472</v>
+        <v>4817.2574720000002</v>
       </c>
       <c r="BJ6" s="1">
-        <v>1.338127</v>
+        <v>1.3381270000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1099.830000</v>
+        <v>1099.83</v>
       </c>
       <c r="BL6" s="1">
-        <v>-309.506000</v>
+        <v>-309.50599999999997</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>4828.487355</v>
+        <v>4828.4873550000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>1.341246</v>
+        <v>1.3412459999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1205.240000</v>
+        <v>1205.24</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-493.409000</v>
+        <v>-493.40899999999999</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>4839.326430</v>
+        <v>4839.3264300000001</v>
       </c>
       <c r="BT6" s="1">
         <v>1.344257</v>
       </c>
       <c r="BU6" s="1">
-        <v>1324.760000</v>
+        <v>1324.76</v>
       </c>
       <c r="BV6" s="1">
-        <v>-696.142000</v>
+        <v>-696.14200000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>4850.071262</v>
+        <v>4850.0712620000004</v>
       </c>
       <c r="BY6" s="1">
-        <v>1.347242</v>
+        <v>1.3472420000000001</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1459.370000</v>
+        <v>1459.37</v>
       </c>
       <c r="CA6" s="1">
-        <v>-913.524000</v>
+        <v>-913.524</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
         <v>4861.462383</v>
@@ -1749,135 +2165,135 @@
         <v>1.350406</v>
       </c>
       <c r="CE6" s="1">
-        <v>1816.040000</v>
+        <v>1816.04</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1429.140000</v>
+        <v>-1429.14</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>4689.476604</v>
+        <v>4689.4766040000004</v>
       </c>
       <c r="B7" s="1">
         <v>1.302632</v>
       </c>
       <c r="C7" s="1">
-        <v>898.325000</v>
+        <v>898.32500000000005</v>
       </c>
       <c r="D7" s="1">
-        <v>-200.197000</v>
+        <v>-200.197</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>4700.174804</v>
+        <v>4700.1748040000002</v>
       </c>
       <c r="G7" s="1">
         <v>1.305604</v>
       </c>
       <c r="H7" s="1">
-        <v>916.239000</v>
+        <v>916.23900000000003</v>
       </c>
       <c r="I7" s="1">
-        <v>-169.145000</v>
+        <v>-169.14500000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>4710.674119</v>
+        <v>4710.6741190000002</v>
       </c>
       <c r="L7" s="1">
         <v>1.308521</v>
       </c>
       <c r="M7" s="1">
-        <v>939.255000</v>
+        <v>939.255</v>
       </c>
       <c r="N7" s="1">
-        <v>-119.545000</v>
+        <v>-119.545</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>4721.491864</v>
+        <v>4721.4918639999996</v>
       </c>
       <c r="Q7" s="1">
         <v>1.311526</v>
       </c>
       <c r="R7" s="1">
-        <v>945.916000</v>
+        <v>945.91600000000005</v>
       </c>
       <c r="S7" s="1">
-        <v>-103.225000</v>
+        <v>-103.22499999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>4732.002090</v>
+        <v>4732.00209</v>
       </c>
       <c r="V7" s="1">
-        <v>1.314445</v>
+        <v>1.3144450000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>952.443000</v>
+        <v>952.44299999999998</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.129700</v>
+        <v>-88.1297</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>4742.420062</v>
+        <v>4742.4200620000001</v>
       </c>
       <c r="AA7" s="1">
         <v>1.317339</v>
       </c>
       <c r="AB7" s="1">
-        <v>959.449000</v>
+        <v>959.44899999999996</v>
       </c>
       <c r="AC7" s="1">
-        <v>-76.448200</v>
+        <v>-76.4482</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>4752.961039</v>
+        <v>4752.9610389999998</v>
       </c>
       <c r="AF7" s="1">
-        <v>1.320267</v>
+        <v>1.3202670000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>964.019000</v>
+        <v>964.01900000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-74.174100</v>
+        <v>-74.174099999999996</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>4763.139475</v>
+        <v>4763.1394749999999</v>
       </c>
       <c r="AK7" s="1">
         <v>1.323094</v>
       </c>
       <c r="AL7" s="1">
-        <v>971.159000</v>
+        <v>971.15899999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-78.794600</v>
+        <v>-78.794600000000003</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>4773.759779</v>
@@ -1886,315 +2302,315 @@
         <v>1.326044</v>
       </c>
       <c r="AQ7" s="1">
-        <v>979.170000</v>
+        <v>979.17</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.313500</v>
+        <v>-90.313500000000005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>4784.702021</v>
+        <v>4784.7020210000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>1.329084</v>
+        <v>1.3290839999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>988.970000</v>
+        <v>988.97</v>
       </c>
       <c r="AW7" s="1">
-        <v>-107.658000</v>
+        <v>-107.658</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>4796.203287</v>
+        <v>4796.2032870000003</v>
       </c>
       <c r="AZ7" s="1">
         <v>1.332279</v>
       </c>
       <c r="BA7" s="1">
-        <v>997.122000</v>
+        <v>997.12199999999996</v>
       </c>
       <c r="BB7" s="1">
-        <v>-122.986000</v>
+        <v>-122.986</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>4806.892041</v>
+        <v>4806.8920410000001</v>
       </c>
       <c r="BE7" s="1">
         <v>1.335248</v>
       </c>
       <c r="BF7" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG7" s="1">
-        <v>-193.827000</v>
+        <v>-193.827</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>4817.642825</v>
+        <v>4817.6428249999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>1.338234</v>
+        <v>1.3382339999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL7" s="1">
-        <v>-309.477000</v>
+        <v>-309.47699999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>4828.907002</v>
+        <v>4828.9070019999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>1.341363</v>
+        <v>1.3413630000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-493.425000</v>
+        <v>-493.42500000000001</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>4839.757979</v>
       </c>
       <c r="BT7" s="1">
-        <v>1.344377</v>
+        <v>1.3443769999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>1324.720000</v>
+        <v>1324.72</v>
       </c>
       <c r="BV7" s="1">
-        <v>-696.110000</v>
+        <v>-696.11</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>4850.520143</v>
+        <v>4850.5201429999997</v>
       </c>
       <c r="BY7" s="1">
         <v>1.347367</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1459.370000</v>
+        <v>1459.37</v>
       </c>
       <c r="CA7" s="1">
-        <v>-913.573000</v>
+        <v>-913.57299999999998</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>4862.004511</v>
+        <v>4862.0045110000001</v>
       </c>
       <c r="CD7" s="1">
         <v>1.350557</v>
       </c>
       <c r="CE7" s="1">
-        <v>1815.040000</v>
+        <v>1815.04</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1430.060000</v>
+        <v>-1430.06</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>4690.132306</v>
+        <v>4690.1323060000004</v>
       </c>
       <c r="B8" s="1">
-        <v>1.302815</v>
+        <v>1.3028150000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>898.349000</v>
+        <v>898.34900000000005</v>
       </c>
       <c r="D8" s="1">
-        <v>-200.077000</v>
+        <v>-200.077</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>4700.559731</v>
+        <v>4700.5597310000003</v>
       </c>
       <c r="G8" s="1">
-        <v>1.305711</v>
+        <v>1.3057110000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>916.242000</v>
+        <v>916.24199999999996</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.989000</v>
+        <v>-168.989</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>4711.027312</v>
+        <v>4711.0273120000002</v>
       </c>
       <c r="L8" s="1">
         <v>1.308619</v>
       </c>
       <c r="M8" s="1">
-        <v>939.186000</v>
+        <v>939.18600000000004</v>
       </c>
       <c r="N8" s="1">
-        <v>-119.591000</v>
+        <v>-119.59099999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>4721.839592</v>
+        <v>4721.8395920000003</v>
       </c>
       <c r="Q8" s="1">
-        <v>1.311622</v>
+        <v>1.3116220000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>945.941000</v>
+        <v>945.94100000000003</v>
       </c>
       <c r="S8" s="1">
-        <v>-103.195000</v>
+        <v>-103.19499999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>4732.348794</v>
+        <v>4732.3487940000005</v>
       </c>
       <c r="V8" s="1">
         <v>1.314541</v>
       </c>
       <c r="W8" s="1">
-        <v>952.401000</v>
+        <v>952.40099999999995</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.097900</v>
+        <v>-88.097899999999996</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>4742.770732</v>
       </c>
       <c r="AA8" s="1">
-        <v>1.317436</v>
+        <v>1.3174360000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>959.354000</v>
+        <v>959.35400000000004</v>
       </c>
       <c r="AC8" s="1">
-        <v>-76.422000</v>
+        <v>-76.421999999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>4753.381678</v>
+        <v>4753.3816779999997</v>
       </c>
       <c r="AF8" s="1">
         <v>1.320384</v>
       </c>
       <c r="AG8" s="1">
-        <v>964.005000</v>
+        <v>964.005</v>
       </c>
       <c r="AH8" s="1">
-        <v>-74.216800</v>
+        <v>-74.216800000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>4763.419714</v>
+        <v>4763.4197139999997</v>
       </c>
       <c r="AK8" s="1">
         <v>1.323172</v>
       </c>
       <c r="AL8" s="1">
-        <v>971.150000</v>
+        <v>971.15</v>
       </c>
       <c r="AM8" s="1">
-        <v>-78.764200</v>
+        <v>-78.764200000000002</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>4774.066803</v>
+        <v>4774.0668029999997</v>
       </c>
       <c r="AP8" s="1">
-        <v>1.326130</v>
+        <v>1.32613</v>
       </c>
       <c r="AQ8" s="1">
-        <v>979.164000</v>
+        <v>979.16399999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.287200</v>
+        <v>-90.287199999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>4785.066121</v>
+        <v>4785.0661209999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>1.329185</v>
+        <v>1.3291850000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>988.999000</v>
+        <v>988.99900000000002</v>
       </c>
       <c r="AW8" s="1">
-        <v>-107.650000</v>
+        <v>-107.65</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>4796.582726</v>
+        <v>4796.5827259999996</v>
       </c>
       <c r="AZ8" s="1">
         <v>1.332384</v>
       </c>
       <c r="BA8" s="1">
-        <v>997.127000</v>
+        <v>997.12699999999995</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.003000</v>
+        <v>-123.003</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>4807.255111</v>
+        <v>4807.2551110000004</v>
       </c>
       <c r="BE8" s="1">
-        <v>1.335349</v>
+        <v>1.3353489999999999</v>
       </c>
       <c r="BF8" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG8" s="1">
-        <v>-193.802000</v>
+        <v>-193.80199999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>4818.405487</v>
@@ -2203,180 +2619,180 @@
         <v>1.338446</v>
       </c>
       <c r="BK8" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL8" s="1">
-        <v>-309.492000</v>
+        <v>-309.49200000000002</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>4829.724911</v>
+        <v>4829.7249110000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>1.341590</v>
+        <v>1.3415900000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1205.240000</v>
+        <v>1205.24</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-493.425000</v>
+        <v>-493.42500000000001</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>4840.185004</v>
+        <v>4840.1850039999999</v>
       </c>
       <c r="BT8" s="1">
-        <v>1.344496</v>
+        <v>1.3444959999999999</v>
       </c>
       <c r="BU8" s="1">
-        <v>1324.650000</v>
+        <v>1324.65</v>
       </c>
       <c r="BV8" s="1">
-        <v>-696.163000</v>
+        <v>-696.16300000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>4850.951671</v>
+        <v>4850.9516709999998</v>
       </c>
       <c r="BY8" s="1">
-        <v>1.347487</v>
+        <v>1.3474870000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1459.350000</v>
+        <v>1459.35</v>
       </c>
       <c r="CA8" s="1">
-        <v>-913.445000</v>
+        <v>-913.44500000000005</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>4862.593759</v>
+        <v>4862.5937590000003</v>
       </c>
       <c r="CD8" s="1">
-        <v>1.350720</v>
+        <v>1.3507199999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1816.000000</v>
+        <v>1816</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1428.990000</v>
+        <v>-1428.99</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>4690.502353</v>
+        <v>4690.5023529999999</v>
       </c>
       <c r="B9" s="1">
-        <v>1.302917</v>
+        <v>1.3029170000000001</v>
       </c>
       <c r="C9" s="1">
-        <v>898.401000</v>
+        <v>898.40099999999995</v>
       </c>
       <c r="D9" s="1">
-        <v>-200.143000</v>
+        <v>-200.143</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>4700.905412</v>
+        <v>4700.9054120000001</v>
       </c>
       <c r="G9" s="1">
-        <v>1.305807</v>
+        <v>1.3058069999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>916.302000</v>
+        <v>916.30200000000002</v>
       </c>
       <c r="I9" s="1">
-        <v>-169.112000</v>
+        <v>-169.11199999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>4711.372527</v>
+        <v>4711.3725270000004</v>
       </c>
       <c r="L9" s="1">
-        <v>1.308715</v>
+        <v>1.3087150000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>939.218000</v>
+        <v>939.21799999999996</v>
       </c>
       <c r="N9" s="1">
-        <v>-119.552000</v>
+        <v>-119.55200000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>4722.191719</v>
+        <v>4722.1917190000004</v>
       </c>
       <c r="Q9" s="1">
-        <v>1.311720</v>
+        <v>1.31172</v>
       </c>
       <c r="R9" s="1">
-        <v>945.972000</v>
+        <v>945.97199999999998</v>
       </c>
       <c r="S9" s="1">
-        <v>-103.218000</v>
+        <v>-103.218</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>4732.766922</v>
+        <v>4732.7669219999998</v>
       </c>
       <c r="V9" s="1">
         <v>1.314657</v>
       </c>
       <c r="W9" s="1">
-        <v>952.411000</v>
+        <v>952.41099999999994</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.102600</v>
+        <v>-88.102599999999995</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>4743.186876</v>
+        <v>4743.1868759999998</v>
       </c>
       <c r="AA9" s="1">
-        <v>1.317552</v>
+        <v>1.3175520000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>959.369000</v>
+        <v>959.36900000000003</v>
       </c>
       <c r="AC9" s="1">
-        <v>-76.316800</v>
+        <v>-76.316800000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>4753.664367</v>
+        <v>4753.6643670000003</v>
       </c>
       <c r="AF9" s="1">
         <v>1.320462</v>
       </c>
       <c r="AG9" s="1">
-        <v>964.013000</v>
+        <v>964.01300000000003</v>
       </c>
       <c r="AH9" s="1">
-        <v>-74.181700</v>
+        <v>-74.181700000000006</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
         <v>4763.769362</v>
@@ -2385,844 +2801,844 @@
         <v>1.323269</v>
       </c>
       <c r="AL9" s="1">
-        <v>971.168000</v>
+        <v>971.16800000000001</v>
       </c>
       <c r="AM9" s="1">
-        <v>-78.763600</v>
+        <v>-78.763599999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>4774.428882</v>
+        <v>4774.4288820000002</v>
       </c>
       <c r="AP9" s="1">
-        <v>1.326230</v>
+        <v>1.32623</v>
       </c>
       <c r="AQ9" s="1">
-        <v>979.191000</v>
+        <v>979.19100000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.286100</v>
+        <v>-90.286100000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>4785.429684</v>
+        <v>4785.4296839999997</v>
       </c>
       <c r="AU9" s="1">
         <v>1.329286</v>
       </c>
       <c r="AV9" s="1">
-        <v>988.991000</v>
+        <v>988.99099999999999</v>
       </c>
       <c r="AW9" s="1">
-        <v>-107.642000</v>
+        <v>-107.642</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>4797.299940</v>
+        <v>4797.2999399999999</v>
       </c>
       <c r="AZ9" s="1">
-        <v>1.332583</v>
+        <v>1.3325830000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>997.138000</v>
+        <v>997.13800000000003</v>
       </c>
       <c r="BB9" s="1">
-        <v>-122.991000</v>
+        <v>-122.991</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>4807.976822</v>
+        <v>4807.9768219999996</v>
       </c>
       <c r="BE9" s="1">
-        <v>1.335549</v>
+        <v>1.3355490000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG9" s="1">
-        <v>-193.824000</v>
+        <v>-193.82400000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>4818.781143</v>
+        <v>4818.7811430000002</v>
       </c>
       <c r="BJ9" s="1">
-        <v>1.338550</v>
+        <v>1.3385499999999999</v>
       </c>
       <c r="BK9" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL9" s="1">
-        <v>-309.482000</v>
+        <v>-309.48200000000003</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>4830.135065</v>
+        <v>4830.1350650000004</v>
       </c>
       <c r="BO9" s="1">
         <v>1.341704</v>
       </c>
       <c r="BP9" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-493.384000</v>
+        <v>-493.38400000000001</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>4840.594698</v>
+        <v>4840.5946979999999</v>
       </c>
       <c r="BT9" s="1">
-        <v>1.344610</v>
+        <v>1.3446100000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1324.660000</v>
+        <v>1324.66</v>
       </c>
       <c r="BV9" s="1">
-        <v>-696.126000</v>
+        <v>-696.12599999999998</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>4851.671356</v>
+        <v>4851.6713559999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>1.347686</v>
+        <v>1.3476859999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1459.290000</v>
+        <v>1459.29</v>
       </c>
       <c r="CA9" s="1">
-        <v>-913.481000</v>
+        <v>-913.48099999999999</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>4863.083805</v>
+        <v>4863.0838050000002</v>
       </c>
       <c r="CD9" s="1">
         <v>1.350857</v>
       </c>
       <c r="CE9" s="1">
-        <v>1815.770000</v>
+        <v>1815.77</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1429.110000</v>
+        <v>-1429.11</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>4690.846080</v>
+        <v>4690.8460800000003</v>
       </c>
       <c r="B10" s="1">
         <v>1.303013</v>
       </c>
       <c r="C10" s="1">
-        <v>898.262000</v>
+        <v>898.26199999999994</v>
       </c>
       <c r="D10" s="1">
-        <v>-200.011000</v>
+        <v>-200.011</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>4701.252115</v>
+        <v>4701.2521150000002</v>
       </c>
       <c r="G10" s="1">
         <v>1.305903</v>
       </c>
       <c r="H10" s="1">
-        <v>916.158000</v>
+        <v>916.15800000000002</v>
       </c>
       <c r="I10" s="1">
-        <v>-169.128000</v>
+        <v>-169.12799999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>4711.988020</v>
+        <v>4711.9880199999998</v>
       </c>
       <c r="L10" s="1">
         <v>1.308886</v>
       </c>
       <c r="M10" s="1">
-        <v>939.166000</v>
+        <v>939.16600000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-119.580000</v>
+        <v>-119.58</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>4722.605879</v>
+        <v>4722.6058789999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>1.311835</v>
+        <v>1.3118350000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>945.972000</v>
+        <v>945.97199999999998</v>
       </c>
       <c r="S10" s="1">
-        <v>-103.257000</v>
+        <v>-103.25700000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>4733.061545</v>
+        <v>4733.0615449999996</v>
       </c>
       <c r="V10" s="1">
-        <v>1.314739</v>
+        <v>1.3147390000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>952.346000</v>
+        <v>952.346</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.095900</v>
+        <v>-88.0959</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>4743.469099</v>
+        <v>4743.4690989999999</v>
       </c>
       <c r="AA10" s="1">
-        <v>1.317630</v>
+        <v>1.3176300000000001</v>
       </c>
       <c r="AB10" s="1">
-        <v>959.397000</v>
+        <v>959.39700000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-76.320400</v>
+        <v>-76.320400000000006</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>4754.008621</v>
+        <v>4754.0086209999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>1.320558</v>
+        <v>1.3205579999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>964.010000</v>
+        <v>964.01</v>
       </c>
       <c r="AH10" s="1">
-        <v>-74.208500</v>
+        <v>-74.208500000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>4764.117584</v>
+        <v>4764.1175839999996</v>
       </c>
       <c r="AK10" s="1">
         <v>1.323366</v>
       </c>
       <c r="AL10" s="1">
-        <v>971.156000</v>
+        <v>971.15599999999995</v>
       </c>
       <c r="AM10" s="1">
-        <v>-78.770000</v>
+        <v>-78.77</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>4774.788013</v>
+        <v>4774.7880130000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>1.326330</v>
+        <v>1.32633</v>
       </c>
       <c r="AQ10" s="1">
-        <v>979.172000</v>
+        <v>979.17200000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.306400</v>
+        <v>-90.306399999999996</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
         <v>4786.160296</v>
       </c>
       <c r="AU10" s="1">
-        <v>1.329489</v>
+        <v>1.3294889999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>988.992000</v>
+        <v>988.99199999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-107.635000</v>
+        <v>-107.63500000000001</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>4797.659540</v>
+        <v>4797.6595399999997</v>
       </c>
       <c r="AZ10" s="1">
-        <v>1.332683</v>
+        <v>1.3326830000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>997.141000</v>
+        <v>997.14099999999996</v>
       </c>
       <c r="BB10" s="1">
-        <v>-122.992000</v>
+        <v>-122.992</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>4808.365653</v>
+        <v>4808.3656529999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>1.335657</v>
+        <v>1.3356570000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG10" s="1">
-        <v>-193.801000</v>
+        <v>-193.80099999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>4819.155749</v>
+        <v>4819.1557489999996</v>
       </c>
       <c r="BJ10" s="1">
         <v>1.338654</v>
       </c>
       <c r="BK10" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL10" s="1">
-        <v>-309.494000</v>
+        <v>-309.49400000000003</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>4830.846327</v>
+        <v>4830.8463270000002</v>
       </c>
       <c r="BO10" s="1">
-        <v>1.341902</v>
+        <v>1.3419019999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1205.210000</v>
+        <v>1205.21</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-493.412000</v>
+        <v>-493.41199999999998</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>4841.343658</v>
+        <v>4841.3436579999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>1.344818</v>
+        <v>1.3448180000000001</v>
       </c>
       <c r="BU10" s="1">
-        <v>1324.580000</v>
+        <v>1324.58</v>
       </c>
       <c r="BV10" s="1">
-        <v>-696.202000</v>
+        <v>-696.202</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>4851.820190</v>
+        <v>4851.8201900000004</v>
       </c>
       <c r="BY10" s="1">
         <v>1.347728</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1459.240000</v>
+        <v>1459.24</v>
       </c>
       <c r="CA10" s="1">
-        <v>-913.478000</v>
+        <v>-913.47799999999995</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>4863.601734</v>
+        <v>4863.6017339999999</v>
       </c>
       <c r="CD10" s="1">
-        <v>1.351000</v>
+        <v>1.351</v>
       </c>
       <c r="CE10" s="1">
-        <v>1814.970000</v>
+        <v>1814.97</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1429.850000</v>
+        <v>-1429.85</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>4691.186800</v>
+        <v>4691.1868000000004</v>
       </c>
       <c r="B11" s="1">
         <v>1.303107</v>
       </c>
       <c r="C11" s="1">
-        <v>898.518000</v>
+        <v>898.51800000000003</v>
       </c>
       <c r="D11" s="1">
-        <v>-200.117000</v>
+        <v>-200.11699999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>4701.674210</v>
+        <v>4701.6742100000001</v>
       </c>
       <c r="G11" s="1">
-        <v>1.306021</v>
+        <v>1.3060210000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>916.202000</v>
+        <v>916.202</v>
       </c>
       <c r="I11" s="1">
-        <v>-169.097000</v>
+        <v>-169.09700000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>4712.409124</v>
+        <v>4712.4091239999998</v>
       </c>
       <c r="L11" s="1">
-        <v>1.309003</v>
+        <v>1.3090029999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>939.337000</v>
+        <v>939.33699999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-119.685000</v>
+        <v>-119.685</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>4722.888598</v>
+        <v>4722.8885979999995</v>
       </c>
       <c r="Q11" s="1">
-        <v>1.311913</v>
+        <v>1.3119130000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>945.958000</v>
+        <v>945.95799999999997</v>
       </c>
       <c r="S11" s="1">
-        <v>-103.248000</v>
+        <v>-103.248</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>4733.401838</v>
+        <v>4733.4018379999998</v>
       </c>
       <c r="V11" s="1">
-        <v>1.314834</v>
+        <v>1.3148340000000001</v>
       </c>
       <c r="W11" s="1">
-        <v>952.345000</v>
+        <v>952.34500000000003</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.053500</v>
+        <v>-88.0535</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>4743.808363</v>
+        <v>4743.8083630000001</v>
       </c>
       <c r="AA11" s="1">
         <v>1.317725</v>
       </c>
       <c r="AB11" s="1">
-        <v>959.460000</v>
+        <v>959.46</v>
       </c>
       <c r="AC11" s="1">
-        <v>-76.435900</v>
+        <v>-76.435900000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>4754.350334</v>
+        <v>4754.3503339999997</v>
       </c>
       <c r="AF11" s="1">
-        <v>1.320653</v>
+        <v>1.3206530000000001</v>
       </c>
       <c r="AG11" s="1">
-        <v>964.032000</v>
+        <v>964.03200000000004</v>
       </c>
       <c r="AH11" s="1">
-        <v>-74.218500</v>
+        <v>-74.218500000000006</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>4764.827188</v>
+        <v>4764.8271880000002</v>
       </c>
       <c r="AK11" s="1">
         <v>1.323563</v>
       </c>
       <c r="AL11" s="1">
-        <v>971.134000</v>
+        <v>971.13400000000001</v>
       </c>
       <c r="AM11" s="1">
-        <v>-78.796500</v>
+        <v>-78.796499999999995</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>4775.515153</v>
+        <v>4775.5151530000003</v>
       </c>
       <c r="AP11" s="1">
         <v>1.326532</v>
       </c>
       <c r="AQ11" s="1">
-        <v>979.189000</v>
+        <v>979.18899999999996</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.308000</v>
+        <v>-90.308000000000007</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>4786.550623</v>
+        <v>4786.5506230000001</v>
       </c>
       <c r="AU11" s="1">
-        <v>1.329597</v>
+        <v>1.3295969999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>988.975000</v>
+        <v>988.97500000000002</v>
       </c>
       <c r="AW11" s="1">
-        <v>-107.635000</v>
+        <v>-107.63500000000001</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>4798.017155</v>
+        <v>4798.0171549999995</v>
       </c>
       <c r="AZ11" s="1">
-        <v>1.332783</v>
+        <v>1.3327830000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>997.111000</v>
+        <v>997.11099999999999</v>
       </c>
       <c r="BB11" s="1">
-        <v>-122.983000</v>
+        <v>-122.983</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>4808.726245</v>
+        <v>4808.7262449999998</v>
       </c>
       <c r="BE11" s="1">
-        <v>1.335757</v>
+        <v>1.3357570000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG11" s="1">
-        <v>-193.855000</v>
+        <v>-193.85499999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>4819.861960</v>
+        <v>4819.8619600000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>1.338851</v>
       </c>
       <c r="BK11" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-309.504000</v>
+        <v>-309.50400000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>4830.962393</v>
+        <v>4830.9623929999998</v>
       </c>
       <c r="BO11" s="1">
         <v>1.341934</v>
       </c>
       <c r="BP11" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-493.425000</v>
+        <v>-493.42500000000001</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>4841.454266</v>
+        <v>4841.4542659999997</v>
       </c>
       <c r="BT11" s="1">
         <v>1.344848</v>
       </c>
       <c r="BU11" s="1">
-        <v>1324.520000</v>
+        <v>1324.52</v>
       </c>
       <c r="BV11" s="1">
-        <v>-696.223000</v>
+        <v>-696.22299999999996</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>4852.246716</v>
+        <v>4852.2467159999997</v>
       </c>
       <c r="BY11" s="1">
-        <v>1.347846</v>
+        <v>1.3478460000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1459.290000</v>
+        <v>1459.29</v>
       </c>
       <c r="CA11" s="1">
-        <v>-913.407000</v>
+        <v>-913.40700000000004</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
         <v>4864.117467</v>
       </c>
       <c r="CD11" s="1">
-        <v>1.351144</v>
+        <v>1.3511439999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>1814.950000</v>
+        <v>1814.95</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1429.480000</v>
+        <v>-1429.48</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>4691.601953</v>
+        <v>4691.6019530000003</v>
       </c>
       <c r="B12" s="1">
         <v>1.303223</v>
       </c>
       <c r="C12" s="1">
-        <v>898.416000</v>
+        <v>898.41600000000005</v>
       </c>
       <c r="D12" s="1">
-        <v>-199.912000</v>
+        <v>-199.91200000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>4701.945060</v>
+        <v>4701.94506</v>
       </c>
       <c r="G12" s="1">
-        <v>1.306096</v>
+        <v>1.3060959999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>916.374000</v>
+        <v>916.37400000000002</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.875000</v>
+        <v>-168.875</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>4712.756323</v>
+        <v>4712.7563229999996</v>
       </c>
       <c r="L12" s="1">
         <v>1.309099</v>
       </c>
       <c r="M12" s="1">
-        <v>939.373000</v>
+        <v>939.37300000000005</v>
       </c>
       <c r="N12" s="1">
-        <v>-119.617000</v>
+        <v>-119.617</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>4723.236791</v>
+        <v>4723.2367910000003</v>
       </c>
       <c r="Q12" s="1">
-        <v>1.312010</v>
+        <v>1.3120099999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>945.928000</v>
+        <v>945.928</v>
       </c>
       <c r="S12" s="1">
-        <v>-103.252000</v>
+        <v>-103.252</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>4733.746526</v>
+        <v>4733.7465259999999</v>
       </c>
       <c r="V12" s="1">
-        <v>1.314930</v>
+        <v>1.3149299999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>952.408000</v>
+        <v>952.40800000000002</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.053300</v>
+        <v>-88.053299999999993</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>4744.163003</v>
+        <v>4744.1630029999997</v>
       </c>
       <c r="AA12" s="1">
         <v>1.317823</v>
       </c>
       <c r="AB12" s="1">
-        <v>959.362000</v>
+        <v>959.36199999999997</v>
       </c>
       <c r="AC12" s="1">
-        <v>-76.471400</v>
+        <v>-76.471400000000003</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>4755.036796</v>
+        <v>4755.0367960000003</v>
       </c>
       <c r="AF12" s="1">
-        <v>1.320844</v>
+        <v>1.3208439999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>964.001000</v>
+        <v>964.00099999999998</v>
       </c>
       <c r="AH12" s="1">
-        <v>-74.185200</v>
+        <v>-74.185199999999995</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>4765.163118</v>
+        <v>4765.1631180000004</v>
       </c>
       <c r="AK12" s="1">
-        <v>1.323656</v>
+        <v>1.3236559999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>971.142000</v>
+        <v>971.14200000000005</v>
       </c>
       <c r="AM12" s="1">
-        <v>-78.778500</v>
+        <v>-78.778499999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>4775.891616</v>
+        <v>4775.8916159999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>1.326637</v>
+        <v>1.3266370000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>979.196000</v>
+        <v>979.19600000000003</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.290400</v>
+        <v>-90.290400000000005</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>4786.915171</v>
+        <v>4786.9151709999996</v>
       </c>
       <c r="AU12" s="1">
         <v>1.329699</v>
       </c>
       <c r="AV12" s="1">
-        <v>988.974000</v>
+        <v>988.97400000000005</v>
       </c>
       <c r="AW12" s="1">
-        <v>-107.634000</v>
+        <v>-107.634</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>4798.694162</v>
+        <v>4798.6941619999998</v>
       </c>
       <c r="AZ12" s="1">
-        <v>1.332971</v>
+        <v>1.3329709999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>997.142000</v>
+        <v>997.14200000000005</v>
       </c>
       <c r="BB12" s="1">
-        <v>-122.998000</v>
+        <v>-122.998</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>4809.397332</v>
+        <v>4809.3973319999996</v>
       </c>
       <c r="BE12" s="1">
         <v>1.335944</v>
       </c>
       <c r="BF12" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG12" s="1">
-        <v>-193.816000</v>
+        <v>-193.816</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
         <v>4820.309319</v>
@@ -3231,225 +3647,225 @@
         <v>1.338975</v>
       </c>
       <c r="BK12" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL12" s="1">
-        <v>-309.490000</v>
+        <v>-309.49</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>4831.386508</v>
+        <v>4831.3865079999996</v>
       </c>
       <c r="BO12" s="1">
         <v>1.342052</v>
       </c>
       <c r="BP12" s="1">
-        <v>1205.210000</v>
+        <v>1205.21</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-493.422000</v>
+        <v>-493.42200000000003</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>4841.892729</v>
+        <v>4841.8927290000001</v>
       </c>
       <c r="BT12" s="1">
-        <v>1.344970</v>
+        <v>1.34497</v>
       </c>
       <c r="BU12" s="1">
-        <v>1324.510000</v>
+        <v>1324.51</v>
       </c>
       <c r="BV12" s="1">
-        <v>-696.163000</v>
+        <v>-696.16300000000001</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>4852.695099</v>
+        <v>4852.6950989999996</v>
       </c>
       <c r="BY12" s="1">
         <v>1.347971</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1459.340000</v>
+        <v>1459.34</v>
       </c>
       <c r="CA12" s="1">
-        <v>-913.488000</v>
+        <v>-913.48800000000006</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>4864.671995</v>
+        <v>4864.6719949999997</v>
       </c>
       <c r="CD12" s="1">
-        <v>1.351298</v>
+        <v>1.3512980000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1815.850000</v>
+        <v>1815.85</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1429.160000</v>
+        <v>-1429.16</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>4691.874783</v>
+        <v>4691.8747830000002</v>
       </c>
       <c r="B13" s="1">
         <v>1.303299</v>
       </c>
       <c r="C13" s="1">
-        <v>898.528000</v>
+        <v>898.52800000000002</v>
       </c>
       <c r="D13" s="1">
-        <v>-200.122000</v>
+        <v>-200.12200000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>4702.288786</v>
+        <v>4702.2887860000001</v>
       </c>
       <c r="G13" s="1">
-        <v>1.306191</v>
+        <v>1.3061910000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>916.354000</v>
+        <v>916.35400000000004</v>
       </c>
       <c r="I13" s="1">
-        <v>-169.170000</v>
+        <v>-169.17</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>4713.102067</v>
+        <v>4713.1020669999998</v>
       </c>
       <c r="L13" s="1">
-        <v>1.309195</v>
+        <v>1.3091950000000001</v>
       </c>
       <c r="M13" s="1">
-        <v>939.293000</v>
+        <v>939.29300000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-119.631000</v>
+        <v>-119.631</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>4723.586469</v>
+        <v>4723.5864689999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>1.312107</v>
+        <v>1.3121069999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>945.944000</v>
+        <v>945.94399999999996</v>
       </c>
       <c r="S13" s="1">
-        <v>-103.202000</v>
+        <v>-103.202</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>4734.432983</v>
+        <v>4734.4329829999997</v>
       </c>
       <c r="V13" s="1">
-        <v>1.315120</v>
+        <v>1.3151200000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>952.394000</v>
+        <v>952.39400000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-88.103700</v>
+        <v>-88.103700000000003</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>4744.882213</v>
+        <v>4744.8822129999999</v>
       </c>
       <c r="AA13" s="1">
-        <v>1.318023</v>
+        <v>1.3180229999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>959.351000</v>
+        <v>959.351</v>
       </c>
       <c r="AC13" s="1">
-        <v>-76.434300</v>
+        <v>-76.434299999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>4755.381019</v>
+        <v>4755.3810190000004</v>
       </c>
       <c r="AF13" s="1">
-        <v>1.320939</v>
+        <v>1.3209390000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>964.049000</v>
+        <v>964.04899999999998</v>
       </c>
       <c r="AH13" s="1">
-        <v>-74.202200</v>
+        <v>-74.202200000000005</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>4765.511838</v>
+        <v>4765.5118380000004</v>
       </c>
       <c r="AK13" s="1">
         <v>1.323753</v>
       </c>
       <c r="AL13" s="1">
-        <v>971.156000</v>
+        <v>971.15599999999995</v>
       </c>
       <c r="AM13" s="1">
-        <v>-78.767500</v>
+        <v>-78.767499999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>4776.251680</v>
+        <v>4776.2516800000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>1.326737</v>
+        <v>1.3267370000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>979.189000</v>
+        <v>979.18899999999996</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.298100</v>
+        <v>-90.298100000000005</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>4787.597665</v>
+        <v>4787.5976650000002</v>
       </c>
       <c r="AU13" s="1">
         <v>1.329888</v>
       </c>
       <c r="AV13" s="1">
-        <v>988.968000</v>
+        <v>988.96799999999996</v>
       </c>
       <c r="AW13" s="1">
-        <v>-107.658000</v>
+        <v>-107.658</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
         <v>4799.097906</v>
@@ -3458,2099 +3874,2099 @@
         <v>1.333083</v>
       </c>
       <c r="BA13" s="1">
-        <v>997.142000</v>
+        <v>997.14200000000005</v>
       </c>
       <c r="BB13" s="1">
-        <v>-122.981000</v>
+        <v>-122.98099999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>4809.843733</v>
+        <v>4809.8437329999997</v>
       </c>
       <c r="BE13" s="1">
         <v>1.336068</v>
       </c>
       <c r="BF13" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG13" s="1">
-        <v>-193.837000</v>
+        <v>-193.83699999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>4820.711110</v>
+        <v>4820.7111100000002</v>
       </c>
       <c r="BJ13" s="1">
         <v>1.339086</v>
       </c>
       <c r="BK13" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL13" s="1">
-        <v>-309.495000</v>
+        <v>-309.495</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>4831.783768</v>
+        <v>4831.7837680000002</v>
       </c>
       <c r="BO13" s="1">
-        <v>1.342162</v>
+        <v>1.3421620000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1205.230000</v>
+        <v>1205.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-493.422000</v>
+        <v>-493.42200000000003</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>4842.303914</v>
+        <v>4842.3039140000001</v>
       </c>
       <c r="BT13" s="1">
-        <v>1.345084</v>
+        <v>1.3450839999999999</v>
       </c>
       <c r="BU13" s="1">
-        <v>1324.530000</v>
+        <v>1324.53</v>
       </c>
       <c r="BV13" s="1">
-        <v>-696.272000</v>
+        <v>-696.27200000000005</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>4853.127610</v>
+        <v>4853.1276099999995</v>
       </c>
       <c r="BY13" s="1">
-        <v>1.348091</v>
+        <v>1.3480909999999999</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1459.440000</v>
+        <v>1459.44</v>
       </c>
       <c r="CA13" s="1">
-        <v>-913.456000</v>
+        <v>-913.45600000000002</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>4865.202219</v>
+        <v>4865.2022189999998</v>
       </c>
       <c r="CD13" s="1">
         <v>1.351445</v>
       </c>
       <c r="CE13" s="1">
-        <v>1814.950000</v>
+        <v>1814.95</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1429.890000</v>
+        <v>-1429.89</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>4692.216991</v>
+        <v>4692.2169910000002</v>
       </c>
       <c r="B14" s="1">
-        <v>1.303394</v>
+        <v>1.3033939999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>898.457000</v>
+        <v>898.45699999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-200.067000</v>
+        <v>-200.06700000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>4702.632832</v>
+        <v>4702.6328320000002</v>
       </c>
       <c r="G14" s="1">
         <v>1.306287</v>
       </c>
       <c r="H14" s="1">
-        <v>916.053000</v>
+        <v>916.053</v>
       </c>
       <c r="I14" s="1">
-        <v>-169.070000</v>
+        <v>-169.07</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>4713.793458</v>
+        <v>4713.7934580000001</v>
       </c>
       <c r="L14" s="1">
-        <v>1.309387</v>
+        <v>1.3093870000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>939.339000</v>
+        <v>939.33900000000006</v>
       </c>
       <c r="N14" s="1">
-        <v>-119.617000</v>
+        <v>-119.617</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>4724.283844</v>
+        <v>4724.2838439999996</v>
       </c>
       <c r="Q14" s="1">
-        <v>1.312301</v>
+        <v>1.3123009999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>945.969000</v>
+        <v>945.96900000000005</v>
       </c>
       <c r="S14" s="1">
-        <v>-103.214000</v>
+        <v>-103.214</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>4734.777702</v>
+        <v>4734.7777020000003</v>
       </c>
       <c r="V14" s="1">
-        <v>1.315216</v>
+        <v>1.3152159999999999</v>
       </c>
       <c r="W14" s="1">
-        <v>952.323000</v>
+        <v>952.32299999999998</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.163600</v>
+        <v>-88.163600000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>4745.242793</v>
+        <v>4745.2427930000003</v>
       </c>
       <c r="AA14" s="1">
-        <v>1.318123</v>
+        <v>1.3181229999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>959.401000</v>
+        <v>959.40099999999995</v>
       </c>
       <c r="AC14" s="1">
-        <v>-76.332800</v>
+        <v>-76.332800000000006</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>4755.725275</v>
+        <v>4755.7252749999998</v>
       </c>
       <c r="AF14" s="1">
         <v>1.321035</v>
       </c>
       <c r="AG14" s="1">
-        <v>964.041000</v>
+        <v>964.04100000000005</v>
       </c>
       <c r="AH14" s="1">
-        <v>-74.178700</v>
+        <v>-74.178700000000006</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
         <v>4766.166029</v>
       </c>
       <c r="AK14" s="1">
-        <v>1.323935</v>
+        <v>1.3239350000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>971.090000</v>
+        <v>971.09</v>
       </c>
       <c r="AM14" s="1">
-        <v>-78.797700</v>
+        <v>-78.797700000000006</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>4776.925247</v>
+        <v>4776.9252470000001</v>
       </c>
       <c r="AP14" s="1">
         <v>1.326924</v>
       </c>
       <c r="AQ14" s="1">
-        <v>979.194000</v>
+        <v>979.19399999999996</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.312400</v>
+        <v>-90.312399999999997</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>4788.046048</v>
+        <v>4788.0460480000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>1.330013</v>
+        <v>1.3300129999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>988.981000</v>
+        <v>988.98099999999999</v>
       </c>
       <c r="AW14" s="1">
-        <v>-107.628000</v>
+        <v>-107.628</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>4799.482801</v>
+        <v>4799.4828010000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>1.333190</v>
+        <v>1.3331900000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>997.142000</v>
+        <v>997.14200000000005</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.005000</v>
+        <v>-123.005</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>4810.203331</v>
+        <v>4810.2033309999997</v>
       </c>
       <c r="BE14" s="1">
         <v>1.336168</v>
       </c>
       <c r="BF14" s="1">
-        <v>1035.010000</v>
+        <v>1035.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-193.820000</v>
+        <v>-193.82</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>4821.086548</v>
+        <v>4821.0865480000002</v>
       </c>
       <c r="BJ14" s="1">
         <v>1.339191</v>
       </c>
       <c r="BK14" s="1">
-        <v>1099.780000</v>
+        <v>1099.78</v>
       </c>
       <c r="BL14" s="1">
-        <v>-309.464000</v>
+        <v>-309.464</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>4832.205403</v>
+        <v>4832.2054029999999</v>
       </c>
       <c r="BO14" s="1">
         <v>1.342279</v>
       </c>
       <c r="BP14" s="1">
-        <v>1205.240000</v>
+        <v>1205.24</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-493.451000</v>
+        <v>-493.45100000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>4842.735432</v>
+        <v>4842.7354320000004</v>
       </c>
       <c r="BT14" s="1">
-        <v>1.345204</v>
+        <v>1.3452040000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>1324.420000</v>
+        <v>1324.42</v>
       </c>
       <c r="BV14" s="1">
-        <v>-696.274000</v>
+        <v>-696.274</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>4853.548218</v>
+        <v>4853.5482179999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>1.348208</v>
+        <v>1.3482080000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="CA14" s="1">
-        <v>-913.422000</v>
+        <v>-913.42200000000003</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>4865.718301</v>
+        <v>4865.7183009999999</v>
       </c>
       <c r="CD14" s="1">
         <v>1.351588</v>
       </c>
       <c r="CE14" s="1">
-        <v>1815.680000</v>
+        <v>1815.68</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1430.800000</v>
+        <v>-1430.8</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>4692.556254</v>
+        <v>4692.5562540000001</v>
       </c>
       <c r="B15" s="1">
         <v>1.303488</v>
       </c>
       <c r="C15" s="1">
-        <v>898.408000</v>
+        <v>898.40800000000002</v>
       </c>
       <c r="D15" s="1">
-        <v>-200.052000</v>
+        <v>-200.05199999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>4703.320928</v>
+        <v>4703.3209280000001</v>
       </c>
       <c r="G15" s="1">
         <v>1.306478</v>
       </c>
       <c r="H15" s="1">
-        <v>916.383000</v>
+        <v>916.38300000000004</v>
       </c>
       <c r="I15" s="1">
-        <v>-169.190000</v>
+        <v>-169.19</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>4714.137682</v>
+        <v>4714.1376819999996</v>
       </c>
       <c r="L15" s="1">
         <v>1.309483</v>
       </c>
       <c r="M15" s="1">
-        <v>939.324000</v>
+        <v>939.32399999999996</v>
       </c>
       <c r="N15" s="1">
-        <v>-119.710000</v>
+        <v>-119.71</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>4724.630053</v>
+        <v>4724.6300529999999</v>
       </c>
       <c r="Q15" s="1">
         <v>1.312397</v>
       </c>
       <c r="R15" s="1">
-        <v>945.954000</v>
+        <v>945.95399999999995</v>
       </c>
       <c r="S15" s="1">
-        <v>-103.223000</v>
+        <v>-103.223</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>4735.117958</v>
+        <v>4735.1179579999998</v>
       </c>
       <c r="V15" s="1">
-        <v>1.315311</v>
+        <v>1.3153109999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>952.430000</v>
+        <v>952.43</v>
       </c>
       <c r="X15" s="1">
-        <v>-88.132200</v>
+        <v>-88.132199999999997</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>4745.870763</v>
+        <v>4745.8707629999999</v>
       </c>
       <c r="AA15" s="1">
-        <v>1.318297</v>
+        <v>1.3182970000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>959.366000</v>
+        <v>959.36599999999999</v>
       </c>
       <c r="AC15" s="1">
-        <v>-76.469800</v>
+        <v>-76.469800000000006</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>4756.375002</v>
+        <v>4756.3750019999998</v>
       </c>
       <c r="AF15" s="1">
         <v>1.321215</v>
       </c>
       <c r="AG15" s="1">
-        <v>964.041000</v>
+        <v>964.04100000000005</v>
       </c>
       <c r="AH15" s="1">
-        <v>-74.163400</v>
+        <v>-74.163399999999996</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>4766.556382</v>
+        <v>4766.5563819999998</v>
       </c>
       <c r="AK15" s="1">
-        <v>1.324043</v>
+        <v>1.3240430000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>971.092000</v>
+        <v>971.09199999999998</v>
       </c>
       <c r="AM15" s="1">
-        <v>-78.812300</v>
+        <v>-78.812299999999993</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>4777.333456</v>
+        <v>4777.3334560000003</v>
       </c>
       <c r="AP15" s="1">
         <v>1.327037</v>
       </c>
       <c r="AQ15" s="1">
-        <v>979.205000</v>
+        <v>979.20500000000004</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.307900</v>
+        <v>-90.307900000000004</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>4788.410111</v>
+        <v>4788.4101110000001</v>
       </c>
       <c r="AU15" s="1">
         <v>1.330114</v>
       </c>
       <c r="AV15" s="1">
-        <v>988.983000</v>
+        <v>988.98299999999995</v>
       </c>
       <c r="AW15" s="1">
-        <v>-107.640000</v>
+        <v>-107.64</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>4799.842438</v>
+        <v>4799.8424379999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>1.333290</v>
+        <v>1.3332900000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>997.121000</v>
+        <v>997.12099999999998</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.004000</v>
+        <v>-123.004</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>4810.564418</v>
+        <v>4810.5644179999999</v>
       </c>
       <c r="BE15" s="1">
         <v>1.336268</v>
       </c>
       <c r="BF15" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG15" s="1">
-        <v>-193.824000</v>
+        <v>-193.82400000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>4821.502693</v>
+        <v>4821.5026930000004</v>
       </c>
       <c r="BJ15" s="1">
-        <v>1.339306</v>
+        <v>1.3393060000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL15" s="1">
-        <v>-309.495000</v>
+        <v>-309.495</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>4832.602662</v>
+        <v>4832.6026620000002</v>
       </c>
       <c r="BO15" s="1">
-        <v>1.342390</v>
+        <v>1.34239</v>
       </c>
       <c r="BP15" s="1">
-        <v>1205.210000</v>
+        <v>1205.21</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-493.413000</v>
+        <v>-493.41300000000001</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>4843.161495</v>
+        <v>4843.1614950000003</v>
       </c>
       <c r="BT15" s="1">
         <v>1.345323</v>
       </c>
       <c r="BU15" s="1">
-        <v>1324.420000</v>
+        <v>1324.42</v>
       </c>
       <c r="BV15" s="1">
-        <v>-696.310000</v>
+        <v>-696.31</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>4853.969321</v>
+        <v>4853.9693209999996</v>
       </c>
       <c r="BY15" s="1">
         <v>1.348325</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="CA15" s="1">
-        <v>-913.541000</v>
+        <v>-913.54100000000005</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>4866.236905</v>
+        <v>4866.2369049999998</v>
       </c>
       <c r="CD15" s="1">
-        <v>1.351732</v>
+        <v>1.3517319999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1816.860000</v>
+        <v>1816.86</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1429.830000</v>
+        <v>-1429.83</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
         <v>4693.241231</v>
       </c>
       <c r="B16" s="1">
-        <v>1.303678</v>
+        <v>1.3036779999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>898.328000</v>
+        <v>898.32799999999997</v>
       </c>
       <c r="D16" s="1">
-        <v>-200.037000</v>
+        <v>-200.03700000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>4703.668655</v>
+        <v>4703.6686550000004</v>
       </c>
       <c r="G16" s="1">
         <v>1.306575</v>
       </c>
       <c r="H16" s="1">
-        <v>916.161000</v>
+        <v>916.16099999999994</v>
       </c>
       <c r="I16" s="1">
-        <v>-169.151000</v>
+        <v>-169.15100000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>4714.482898</v>
+        <v>4714.4828980000002</v>
       </c>
       <c r="L16" s="1">
         <v>1.309579</v>
       </c>
       <c r="M16" s="1">
-        <v>939.256000</v>
+        <v>939.25599999999997</v>
       </c>
       <c r="N16" s="1">
-        <v>-119.553000</v>
+        <v>-119.553</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>4724.978243</v>
+        <v>4724.9782429999996</v>
       </c>
       <c r="Q16" s="1">
         <v>1.312494</v>
       </c>
       <c r="R16" s="1">
-        <v>945.991000</v>
+        <v>945.99099999999999</v>
       </c>
       <c r="S16" s="1">
-        <v>-103.225000</v>
+        <v>-103.22499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>4735.765733</v>
+        <v>4735.7657330000002</v>
       </c>
       <c r="V16" s="1">
-        <v>1.315490</v>
+        <v>1.31549</v>
       </c>
       <c r="W16" s="1">
-        <v>952.411000</v>
+        <v>952.41099999999994</v>
       </c>
       <c r="X16" s="1">
-        <v>-88.061500</v>
+        <v>-88.061499999999995</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>4746.268023</v>
+        <v>4746.2680229999996</v>
       </c>
       <c r="AA16" s="1">
         <v>1.318408</v>
       </c>
       <c r="AB16" s="1">
-        <v>959.405000</v>
+        <v>959.40499999999997</v>
       </c>
       <c r="AC16" s="1">
-        <v>-76.455600</v>
+        <v>-76.455600000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>4756.751962</v>
+        <v>4756.7519620000003</v>
       </c>
       <c r="AF16" s="1">
-        <v>1.321320</v>
+        <v>1.3213200000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>964.026000</v>
+        <v>964.02599999999995</v>
       </c>
       <c r="AH16" s="1">
-        <v>-74.209200</v>
+        <v>-74.209199999999996</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>4766.908044</v>
+        <v>4766.9080439999998</v>
       </c>
       <c r="AK16" s="1">
         <v>1.324141</v>
       </c>
       <c r="AL16" s="1">
-        <v>971.084000</v>
+        <v>971.08399999999995</v>
       </c>
       <c r="AM16" s="1">
-        <v>-78.813600</v>
+        <v>-78.813599999999994</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>4777.715869</v>
+        <v>4777.7158689999997</v>
       </c>
       <c r="AP16" s="1">
         <v>1.327143</v>
       </c>
       <c r="AQ16" s="1">
-        <v>979.197000</v>
+        <v>979.197</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.292900</v>
+        <v>-90.292900000000003</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>4788.772192</v>
+        <v>4788.7721920000004</v>
       </c>
       <c r="AU16" s="1">
         <v>1.330214</v>
       </c>
       <c r="AV16" s="1">
-        <v>988.980000</v>
+        <v>988.98</v>
       </c>
       <c r="AW16" s="1">
-        <v>-107.631000</v>
+        <v>-107.631</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>4800.261057</v>
+        <v>4800.2610569999997</v>
       </c>
       <c r="AZ16" s="1">
-        <v>1.333406</v>
+        <v>1.3334060000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>997.139000</v>
+        <v>997.13900000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-122.990000</v>
+        <v>-122.99</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>4810.989490</v>
+        <v>4810.9894899999999</v>
       </c>
       <c r="BE16" s="1">
-        <v>1.336386</v>
+        <v>1.3363860000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG16" s="1">
-        <v>-193.816000</v>
+        <v>-193.816</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
         <v>4821.863284</v>
       </c>
       <c r="BJ16" s="1">
-        <v>1.339406</v>
+        <v>1.3394060000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1099.830000</v>
+        <v>1099.83</v>
       </c>
       <c r="BL16" s="1">
-        <v>-309.494000</v>
+        <v>-309.49400000000003</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>4833.024261</v>
+        <v>4833.0242609999996</v>
       </c>
       <c r="BO16" s="1">
-        <v>1.342507</v>
+        <v>1.3425069999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-493.406000</v>
+        <v>-493.40600000000001</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>4843.571223</v>
+        <v>4843.5712229999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>1.345436</v>
+        <v>1.3454360000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>1324.390000</v>
+        <v>1324.39</v>
       </c>
       <c r="BV16" s="1">
-        <v>-696.318000</v>
+        <v>-696.31799999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>4854.396376</v>
+        <v>4854.3963759999997</v>
       </c>
       <c r="BY16" s="1">
-        <v>1.348443</v>
+        <v>1.3484430000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1459.360000</v>
+        <v>1459.36</v>
       </c>
       <c r="CA16" s="1">
-        <v>-913.433000</v>
+        <v>-913.43299999999999</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>4866.756184</v>
+        <v>4866.7561839999998</v>
       </c>
       <c r="CD16" s="1">
         <v>1.351877</v>
       </c>
       <c r="CE16" s="1">
-        <v>1814.860000</v>
+        <v>1814.86</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1429.970000</v>
+        <v>-1429.97</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>4693.586445</v>
+        <v>4693.5864449999999</v>
       </c>
       <c r="B17" s="1">
         <v>1.303774</v>
       </c>
       <c r="C17" s="1">
-        <v>898.531000</v>
+        <v>898.53099999999995</v>
       </c>
       <c r="D17" s="1">
-        <v>-200.077000</v>
+        <v>-200.077</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>4704.013376</v>
+        <v>4704.0133759999999</v>
       </c>
       <c r="G17" s="1">
-        <v>1.306670</v>
+        <v>1.30667</v>
       </c>
       <c r="H17" s="1">
-        <v>916.146000</v>
+        <v>916.14599999999996</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.894000</v>
+        <v>-168.89400000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>4715.143077</v>
+        <v>4715.1430769999997</v>
       </c>
       <c r="L17" s="1">
-        <v>1.309762</v>
+        <v>1.3097620000000001</v>
       </c>
       <c r="M17" s="1">
-        <v>939.353000</v>
+        <v>939.35299999999995</v>
       </c>
       <c r="N17" s="1">
-        <v>-119.646000</v>
+        <v>-119.646</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>4725.633458</v>
+        <v>4725.6334580000002</v>
       </c>
       <c r="Q17" s="1">
         <v>1.312676</v>
       </c>
       <c r="R17" s="1">
-        <v>945.956000</v>
+        <v>945.95600000000002</v>
       </c>
       <c r="S17" s="1">
-        <v>-103.255000</v>
+        <v>-103.255</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>4736.149141</v>
+        <v>4736.1491409999999</v>
       </c>
       <c r="V17" s="1">
-        <v>1.315597</v>
+        <v>1.3155969999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>952.444000</v>
+        <v>952.44399999999996</v>
       </c>
       <c r="X17" s="1">
-        <v>-88.102100</v>
+        <v>-88.102099999999993</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>4746.616713</v>
+        <v>4746.6167130000003</v>
       </c>
       <c r="AA17" s="1">
         <v>1.318505</v>
       </c>
       <c r="AB17" s="1">
-        <v>959.425000</v>
+        <v>959.42499999999995</v>
       </c>
       <c r="AC17" s="1">
-        <v>-76.427700</v>
+        <v>-76.427700000000002</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>4757.099657</v>
+        <v>4757.0996569999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>1.321417</v>
+        <v>1.3214170000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>964.015000</v>
+        <v>964.01499999999999</v>
       </c>
       <c r="AH17" s="1">
-        <v>-74.171100</v>
+        <v>-74.171099999999996</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>4767.255772</v>
+        <v>4767.2557720000004</v>
       </c>
       <c r="AK17" s="1">
         <v>1.324238</v>
       </c>
       <c r="AL17" s="1">
-        <v>971.079000</v>
+        <v>971.07899999999995</v>
       </c>
       <c r="AM17" s="1">
-        <v>-78.844900</v>
+        <v>-78.844899999999996</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>4778.077455</v>
+        <v>4778.0774549999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>1.327244</v>
+        <v>1.3272440000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>979.207000</v>
+        <v>979.20699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.310000</v>
+        <v>-90.31</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>4789.196272</v>
+        <v>4789.1962720000001</v>
       </c>
       <c r="AU17" s="1">
-        <v>1.330332</v>
+        <v>1.3303320000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>988.988000</v>
+        <v>988.98800000000006</v>
       </c>
       <c r="AW17" s="1">
-        <v>-107.652000</v>
+        <v>-107.652</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>4800.560113</v>
+        <v>4800.5601129999995</v>
       </c>
       <c r="AZ17" s="1">
-        <v>1.333489</v>
+        <v>1.3334889999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>997.137000</v>
+        <v>997.13699999999994</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.006000</v>
+        <v>-123.006</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>4811.287089</v>
+        <v>4811.2870890000004</v>
       </c>
       <c r="BE17" s="1">
-        <v>1.336469</v>
+        <v>1.3364689999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG17" s="1">
-        <v>-193.799000</v>
+        <v>-193.79900000000001</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>4822.238756</v>
+        <v>4822.2387559999997</v>
       </c>
       <c r="BJ17" s="1">
-        <v>1.339511</v>
+        <v>1.3395109999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL17" s="1">
-        <v>-309.489000</v>
+        <v>-309.48899999999998</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>4833.419604</v>
+        <v>4833.4196039999997</v>
       </c>
       <c r="BO17" s="1">
-        <v>1.342617</v>
+        <v>1.3426169999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1205.200000</v>
+        <v>1205.2</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-493.430000</v>
+        <v>-493.43</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>4844.006218</v>
+        <v>4844.0062180000004</v>
       </c>
       <c r="BT17" s="1">
-        <v>1.345557</v>
+        <v>1.3455569999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="BV17" s="1">
-        <v>-696.364000</v>
+        <v>-696.36400000000003</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>4854.811529</v>
+        <v>4854.8115289999996</v>
       </c>
       <c r="BY17" s="1">
-        <v>1.348559</v>
+        <v>1.3485590000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="CA17" s="1">
-        <v>-913.573000</v>
+        <v>-913.57299999999998</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>4867.295335</v>
+        <v>4867.2953349999998</v>
       </c>
       <c r="CD17" s="1">
         <v>1.352026</v>
       </c>
       <c r="CE17" s="1">
-        <v>1816.300000</v>
+        <v>1816.3</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1430.340000</v>
+        <v>-1430.34</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>4693.929677</v>
+        <v>4693.9296770000001</v>
       </c>
       <c r="B18" s="1">
-        <v>1.303869</v>
+        <v>1.3038689999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>898.385000</v>
+        <v>898.38499999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-200.119000</v>
+        <v>-200.119</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>4704.665584</v>
+        <v>4704.6655840000003</v>
       </c>
       <c r="G18" s="1">
-        <v>1.306852</v>
+        <v>1.3068519999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>916.351000</v>
+        <v>916.351</v>
       </c>
       <c r="I18" s="1">
-        <v>-169.057000</v>
+        <v>-169.05699999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>4715.519042</v>
+        <v>4715.5190419999999</v>
       </c>
       <c r="L18" s="1">
         <v>1.309866</v>
       </c>
       <c r="M18" s="1">
-        <v>939.258000</v>
+        <v>939.25800000000004</v>
       </c>
       <c r="N18" s="1">
-        <v>-119.599000</v>
+        <v>-119.599</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>4726.022857</v>
+        <v>4726.0228569999999</v>
       </c>
       <c r="Q18" s="1">
         <v>1.312784</v>
       </c>
       <c r="R18" s="1">
-        <v>945.932000</v>
+        <v>945.93200000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-103.245000</v>
+        <v>-103.245</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>4736.493364</v>
+        <v>4736.4933639999999</v>
       </c>
       <c r="V18" s="1">
         <v>1.315693</v>
       </c>
       <c r="W18" s="1">
-        <v>952.379000</v>
+        <v>952.37900000000002</v>
       </c>
       <c r="X18" s="1">
-        <v>-88.060600</v>
+        <v>-88.060599999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>4746.966924</v>
+        <v>4746.9669240000003</v>
       </c>
       <c r="AA18" s="1">
-        <v>1.318602</v>
+        <v>1.3186020000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>959.347000</v>
+        <v>959.34699999999998</v>
       </c>
       <c r="AC18" s="1">
-        <v>-76.295700</v>
+        <v>-76.295699999999997</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>4757.445897</v>
+        <v>4757.4458969999996</v>
       </c>
       <c r="AF18" s="1">
-        <v>1.321513</v>
+        <v>1.3215129999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>964.024000</v>
+        <v>964.024</v>
       </c>
       <c r="AH18" s="1">
-        <v>-74.199900</v>
+        <v>-74.1999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>4767.679323</v>
+        <v>4767.6793230000003</v>
       </c>
       <c r="AK18" s="1">
-        <v>1.324355</v>
+        <v>1.3243549999999999</v>
       </c>
       <c r="AL18" s="1">
-        <v>971.081000</v>
+        <v>971.08100000000002</v>
       </c>
       <c r="AM18" s="1">
-        <v>-78.820100</v>
+        <v>-78.820099999999996</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>4778.591806</v>
+        <v>4778.5918060000004</v>
       </c>
       <c r="AP18" s="1">
-        <v>1.327387</v>
+        <v>1.3273870000000001</v>
       </c>
       <c r="AQ18" s="1">
-        <v>979.195000</v>
+        <v>979.19500000000005</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.270400</v>
+        <v>-90.270399999999995</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>4789.503790</v>
+        <v>4789.5037899999998</v>
       </c>
       <c r="AU18" s="1">
-        <v>1.330418</v>
+        <v>1.3304180000000001</v>
       </c>
       <c r="AV18" s="1">
-        <v>988.984000</v>
+        <v>988.98400000000004</v>
       </c>
       <c r="AW18" s="1">
-        <v>-107.653000</v>
+        <v>-107.65300000000001</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>4800.917728</v>
+        <v>4800.9177280000004</v>
       </c>
       <c r="AZ18" s="1">
         <v>1.333588</v>
       </c>
       <c r="BA18" s="1">
-        <v>997.139000</v>
+        <v>997.13900000000001</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.000000</v>
+        <v>-123</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>4811.648710</v>
+        <v>4811.6487100000004</v>
       </c>
       <c r="BE18" s="1">
-        <v>1.336569</v>
+        <v>1.3365689999999999</v>
       </c>
       <c r="BF18" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG18" s="1">
-        <v>-193.843000</v>
+        <v>-193.84299999999999</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>4822.612274</v>
+        <v>4822.6122740000001</v>
       </c>
       <c r="BJ18" s="1">
         <v>1.339615</v>
       </c>
       <c r="BK18" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL18" s="1">
-        <v>-309.506000</v>
+        <v>-309.50599999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>4833.840676</v>
+        <v>4833.8406759999998</v>
       </c>
       <c r="BO18" s="1">
-        <v>1.342734</v>
+        <v>1.3427340000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1205.230000</v>
+        <v>1205.23</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-493.428000</v>
+        <v>-493.428</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>4844.434726</v>
+        <v>4844.4347260000004</v>
       </c>
       <c r="BT18" s="1">
-        <v>1.345676</v>
+        <v>1.3456760000000001</v>
       </c>
       <c r="BU18" s="1">
-        <v>1324.410000</v>
+        <v>1324.41</v>
       </c>
       <c r="BV18" s="1">
-        <v>-696.422000</v>
+        <v>-696.42200000000003</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>4855.268343</v>
+        <v>4855.2683429999997</v>
       </c>
       <c r="BY18" s="1">
-        <v>1.348686</v>
+        <v>1.3486860000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1459.360000</v>
+        <v>1459.36</v>
       </c>
       <c r="CA18" s="1">
-        <v>-913.615000</v>
+        <v>-913.61500000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>4867.832998</v>
+        <v>4867.8329979999999</v>
       </c>
       <c r="CD18" s="1">
         <v>1.352176</v>
       </c>
       <c r="CE18" s="1">
-        <v>1815.760000</v>
+        <v>1815.76</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1428.850000</v>
+        <v>-1428.85</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>4694.640941</v>
+        <v>4694.6409409999997</v>
       </c>
       <c r="B19" s="1">
-        <v>1.304067</v>
+        <v>1.3040670000000001</v>
       </c>
       <c r="C19" s="1">
-        <v>898.317000</v>
+        <v>898.31700000000001</v>
       </c>
       <c r="D19" s="1">
-        <v>-200.202000</v>
+        <v>-200.202</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>4705.045519</v>
+        <v>4705.0455190000002</v>
       </c>
       <c r="G19" s="1">
-        <v>1.306957</v>
+        <v>1.3069569999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>916.299000</v>
+        <v>916.29899999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-169.008000</v>
+        <v>-169.00800000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>4715.865743</v>
+        <v>4715.8657430000003</v>
       </c>
       <c r="L19" s="1">
         <v>1.309963</v>
       </c>
       <c r="M19" s="1">
-        <v>939.447000</v>
+        <v>939.447</v>
       </c>
       <c r="N19" s="1">
-        <v>-119.518000</v>
+        <v>-119.518</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>4726.373491</v>
+        <v>4726.3734910000003</v>
       </c>
       <c r="Q19" s="1">
-        <v>1.312882</v>
+        <v>1.3128820000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>945.972000</v>
+        <v>945.97199999999998</v>
       </c>
       <c r="S19" s="1">
-        <v>-103.188000</v>
+        <v>-103.188</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>4736.845066</v>
+        <v>4736.8450659999999</v>
       </c>
       <c r="V19" s="1">
-        <v>1.315790</v>
+        <v>1.31579</v>
       </c>
       <c r="W19" s="1">
-        <v>952.423000</v>
+        <v>952.423</v>
       </c>
       <c r="X19" s="1">
-        <v>-88.049900</v>
+        <v>-88.049899999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>4747.392982</v>
+        <v>4747.3929820000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>1.318720</v>
+        <v>1.3187199999999999</v>
       </c>
       <c r="AB19" s="1">
-        <v>959.355000</v>
+        <v>959.35500000000002</v>
       </c>
       <c r="AC19" s="1">
-        <v>-76.419800</v>
+        <v>-76.419799999999995</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>4757.871928</v>
+        <v>4757.8719279999996</v>
       </c>
       <c r="AF19" s="1">
         <v>1.321631</v>
       </c>
       <c r="AG19" s="1">
-        <v>964.026000</v>
+        <v>964.02599999999995</v>
       </c>
       <c r="AH19" s="1">
-        <v>-74.194500</v>
+        <v>-74.194500000000005</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>4767.957083</v>
+        <v>4767.9570830000002</v>
       </c>
       <c r="AK19" s="1">
         <v>1.324433</v>
       </c>
       <c r="AL19" s="1">
-        <v>971.086000</v>
+        <v>971.08600000000001</v>
       </c>
       <c r="AM19" s="1">
-        <v>-78.798700</v>
+        <v>-78.798699999999997</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>4778.800124</v>
+        <v>4778.8001240000003</v>
       </c>
       <c r="AP19" s="1">
-        <v>1.327444</v>
+        <v>1.3274440000000001</v>
       </c>
       <c r="AQ19" s="1">
-        <v>979.183000</v>
+        <v>979.18299999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.302700</v>
+        <v>-90.302700000000002</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>4789.865901</v>
+        <v>4789.8659010000001</v>
       </c>
       <c r="AU19" s="1">
-        <v>1.330518</v>
+        <v>1.3305180000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>988.969000</v>
+        <v>988.96900000000005</v>
       </c>
       <c r="AW19" s="1">
-        <v>-107.637000</v>
+        <v>-107.637</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>4801.274879</v>
+        <v>4801.2748789999996</v>
       </c>
       <c r="AZ19" s="1">
-        <v>1.333687</v>
+        <v>1.3336870000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>997.126000</v>
+        <v>997.12599999999998</v>
       </c>
       <c r="BB19" s="1">
-        <v>-122.997000</v>
+        <v>-122.997</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>4812.064816</v>
+        <v>4812.0648160000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>1.336685</v>
+        <v>1.3366849999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG19" s="1">
-        <v>-193.819000</v>
+        <v>-193.81899999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>4823.362722</v>
+        <v>4823.3627219999998</v>
       </c>
       <c r="BJ19" s="1">
         <v>1.339823</v>
       </c>
       <c r="BK19" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL19" s="1">
-        <v>-309.496000</v>
+        <v>-309.49599999999998</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
         <v>4834.238499</v>
       </c>
       <c r="BO19" s="1">
-        <v>1.342844</v>
+        <v>1.3428439999999999</v>
       </c>
       <c r="BP19" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-493.377000</v>
+        <v>-493.37700000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>4844.852357</v>
+        <v>4844.8523569999998</v>
       </c>
       <c r="BT19" s="1">
-        <v>1.345792</v>
+        <v>1.3457920000000001</v>
       </c>
       <c r="BU19" s="1">
-        <v>1324.410000</v>
+        <v>1324.41</v>
       </c>
       <c r="BV19" s="1">
-        <v>-696.449000</v>
+        <v>-696.44899999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>4855.710808</v>
+        <v>4855.7108079999998</v>
       </c>
       <c r="BY19" s="1">
-        <v>1.348809</v>
+        <v>1.3488089999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1459.410000</v>
+        <v>1459.41</v>
       </c>
       <c r="CA19" s="1">
-        <v>-913.477000</v>
+        <v>-913.47699999999998</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>4868.671735</v>
+        <v>4868.6717349999999</v>
       </c>
       <c r="CD19" s="1">
         <v>1.352409</v>
       </c>
       <c r="CE19" s="1">
-        <v>1816.570000</v>
+        <v>1816.57</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1430.340000</v>
+        <v>-1430.34</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>4694.956891</v>
+        <v>4694.9568909999998</v>
       </c>
       <c r="B20" s="1">
         <v>1.304155</v>
       </c>
       <c r="C20" s="1">
-        <v>898.624000</v>
+        <v>898.62400000000002</v>
       </c>
       <c r="D20" s="1">
-        <v>-200.028000</v>
+        <v>-200.02799999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>4705.390270</v>
+        <v>4705.3902699999999</v>
       </c>
       <c r="G20" s="1">
         <v>1.307053</v>
       </c>
       <c r="H20" s="1">
-        <v>916.201000</v>
+        <v>916.20100000000002</v>
       </c>
       <c r="I20" s="1">
-        <v>-169.023000</v>
+        <v>-169.023</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>4716.210959</v>
       </c>
       <c r="L20" s="1">
-        <v>1.310059</v>
+        <v>1.3100590000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>939.230000</v>
+        <v>939.23</v>
       </c>
       <c r="N20" s="1">
-        <v>-119.763000</v>
+        <v>-119.76300000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>4726.723666</v>
+        <v>4726.7236659999999</v>
       </c>
       <c r="Q20" s="1">
-        <v>1.312979</v>
+        <v>1.3129789999999999</v>
       </c>
       <c r="R20" s="1">
-        <v>945.976000</v>
+        <v>945.976</v>
       </c>
       <c r="S20" s="1">
-        <v>-103.190000</v>
+        <v>-103.19</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>4737.268611</v>
+        <v>4737.2686110000004</v>
       </c>
       <c r="V20" s="1">
-        <v>1.315908</v>
+        <v>1.3159080000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>952.384000</v>
+        <v>952.38400000000001</v>
       </c>
       <c r="X20" s="1">
-        <v>-88.112400</v>
+        <v>-88.112399999999994</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>4747.670250</v>
+        <v>4747.6702500000001</v>
       </c>
       <c r="AA20" s="1">
         <v>1.318797</v>
       </c>
       <c r="AB20" s="1">
-        <v>959.443000</v>
+        <v>959.44299999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-76.434600</v>
+        <v>-76.434600000000003</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>4758.149221</v>
+        <v>4758.1492209999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>1.321708</v>
+        <v>1.3217080000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>964.017000</v>
+        <v>964.01700000000005</v>
       </c>
       <c r="AH20" s="1">
-        <v>-74.177700</v>
+        <v>-74.177700000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>4768.308746</v>
+        <v>4768.3087459999997</v>
       </c>
       <c r="AK20" s="1">
-        <v>1.324530</v>
+        <v>1.32453</v>
       </c>
       <c r="AL20" s="1">
-        <v>971.088000</v>
+        <v>971.08799999999997</v>
       </c>
       <c r="AM20" s="1">
-        <v>-78.873900</v>
+        <v>-78.873900000000006</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
         <v>4779.157244</v>
       </c>
       <c r="AP20" s="1">
-        <v>1.327544</v>
+        <v>1.3275440000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>979.173000</v>
+        <v>979.173</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.301200</v>
+        <v>-90.301199999999994</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>4790.232909</v>
+        <v>4790.2329090000003</v>
       </c>
       <c r="AU20" s="1">
-        <v>1.330620</v>
+        <v>1.3306199999999999</v>
       </c>
       <c r="AV20" s="1">
-        <v>988.992000</v>
+        <v>988.99199999999996</v>
       </c>
       <c r="AW20" s="1">
-        <v>-107.638000</v>
+        <v>-107.63800000000001</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>4802.000494</v>
+        <v>4802.0004939999999</v>
       </c>
       <c r="AZ20" s="1">
-        <v>1.333889</v>
+        <v>1.3338890000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>997.142000</v>
+        <v>997.14200000000005</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.006000</v>
+        <v>-123.006</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>4812.732432</v>
+        <v>4812.7324319999998</v>
       </c>
       <c r="BE20" s="1">
-        <v>1.336870</v>
+        <v>1.33687</v>
       </c>
       <c r="BF20" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG20" s="1">
-        <v>-193.839000</v>
+        <v>-193.839</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>4823.738657</v>
+        <v>4823.7386569999999</v>
       </c>
       <c r="BJ20" s="1">
-        <v>1.339927</v>
+        <v>1.3399270000000001</v>
       </c>
       <c r="BK20" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL20" s="1">
-        <v>-309.512000</v>
+        <v>-309.512</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>4834.659107</v>
+        <v>4834.6591070000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>1.342961</v>
+        <v>1.3429610000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-493.432000</v>
+        <v>-493.43200000000002</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>4845.277962</v>
+        <v>4845.2779620000001</v>
       </c>
       <c r="BT20" s="1">
-        <v>1.345911</v>
+        <v>1.3459110000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1324.380000</v>
+        <v>1324.38</v>
       </c>
       <c r="BV20" s="1">
-        <v>-696.480000</v>
+        <v>-696.48</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>4856.474646</v>
+        <v>4856.4746459999997</v>
       </c>
       <c r="BY20" s="1">
         <v>1.349021</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1459.250000</v>
+        <v>1459.25</v>
       </c>
       <c r="CA20" s="1">
-        <v>-913.519000</v>
+        <v>-913.51900000000001</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>4868.913319</v>
+        <v>4868.9133190000002</v>
       </c>
       <c r="CD20" s="1">
         <v>1.352476</v>
       </c>
       <c r="CE20" s="1">
-        <v>1816.590000</v>
+        <v>1816.59</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1430.200000</v>
+        <v>-1430.2</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>4695.320460</v>
+        <v>4695.3204599999999</v>
       </c>
       <c r="B21" s="1">
-        <v>1.304256</v>
+        <v>1.3042560000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>898.454000</v>
+        <v>898.45399999999995</v>
       </c>
       <c r="D21" s="1">
-        <v>-200.088000</v>
+        <v>-200.08799999999999</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>4705.735486</v>
+        <v>4705.7354859999996</v>
       </c>
       <c r="G21" s="1">
-        <v>1.307149</v>
+        <v>1.3071489999999999</v>
       </c>
       <c r="H21" s="1">
-        <v>916.471000</v>
+        <v>916.471</v>
       </c>
       <c r="I21" s="1">
-        <v>-169.038000</v>
+        <v>-169.03800000000001</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>4716.632064</v>
+        <v>4716.6320640000004</v>
       </c>
       <c r="L21" s="1">
         <v>1.310176</v>
       </c>
       <c r="M21" s="1">
-        <v>939.312000</v>
+        <v>939.31200000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-119.747000</v>
+        <v>-119.747</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>4727.159681</v>
+        <v>4727.1596810000001</v>
       </c>
       <c r="Q21" s="1">
-        <v>1.313100</v>
+        <v>1.3130999999999999</v>
       </c>
       <c r="R21" s="1">
-        <v>945.961000</v>
+        <v>945.96100000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-103.246000</v>
+        <v>-103.246</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>4737.548851</v>
+        <v>4737.5488509999996</v>
       </c>
       <c r="V21" s="1">
-        <v>1.315986</v>
+        <v>1.3159860000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>952.432000</v>
+        <v>952.43200000000002</v>
       </c>
       <c r="X21" s="1">
-        <v>-88.092900</v>
+        <v>-88.0929</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>4748.021877</v>
+        <v>4748.0218770000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>1.318895</v>
+        <v>1.3188949999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>959.435000</v>
+        <v>959.43499999999995</v>
       </c>
       <c r="AC21" s="1">
-        <v>-76.460000</v>
+        <v>-76.459999999999994</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>4758.492424</v>
       </c>
       <c r="AF21" s="1">
-        <v>1.321803</v>
+        <v>1.3218030000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>964.035000</v>
+        <v>964.03499999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-74.148200</v>
+        <v>-74.148200000000003</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>4768.655946</v>
+        <v>4768.6559459999999</v>
       </c>
       <c r="AK21" s="1">
         <v>1.324627</v>
       </c>
       <c r="AL21" s="1">
-        <v>971.083000</v>
+        <v>971.08299999999997</v>
       </c>
       <c r="AM21" s="1">
-        <v>-78.863100</v>
+        <v>-78.863100000000003</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>4779.878956</v>
+        <v>4779.8789559999996</v>
       </c>
       <c r="AP21" s="1">
         <v>1.327744</v>
       </c>
       <c r="AQ21" s="1">
-        <v>979.185000</v>
+        <v>979.18499999999995</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.312300</v>
+        <v>-90.312299999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>4790.960044</v>
+        <v>4790.9600440000004</v>
       </c>
       <c r="AU21" s="1">
-        <v>1.330822</v>
+        <v>1.3308219999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>989.002000</v>
+        <v>989.00199999999995</v>
       </c>
       <c r="AW21" s="1">
-        <v>-107.639000</v>
+        <v>-107.639</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>4802.375965</v>
+        <v>4802.3759650000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>1.333993</v>
       </c>
       <c r="BA21" s="1">
-        <v>997.125000</v>
+        <v>997.125</v>
       </c>
       <c r="BB21" s="1">
-        <v>-122.995000</v>
+        <v>-122.995</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>4813.096529</v>
+        <v>4813.0965290000004</v>
       </c>
       <c r="BE21" s="1">
-        <v>1.336971</v>
+        <v>1.3369709999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1035.020000</v>
+        <v>1035.02</v>
       </c>
       <c r="BG21" s="1">
-        <v>-193.817000</v>
+        <v>-193.81700000000001</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>4824.115616</v>
       </c>
       <c r="BJ21" s="1">
-        <v>1.340032</v>
+        <v>1.3400319999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL21" s="1">
-        <v>-309.502000</v>
+        <v>-309.50200000000001</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>4835.362897</v>
@@ -5559,225 +5975,225 @@
         <v>1.343156</v>
       </c>
       <c r="BP21" s="1">
-        <v>1205.200000</v>
+        <v>1205.2</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-493.412000</v>
+        <v>-493.41199999999998</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>4846.048707</v>
+        <v>4846.0487069999999</v>
       </c>
       <c r="BT21" s="1">
         <v>1.346125</v>
       </c>
       <c r="BU21" s="1">
-        <v>1324.440000</v>
+        <v>1324.44</v>
       </c>
       <c r="BV21" s="1">
-        <v>-696.518000</v>
+        <v>-696.51800000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>4856.618466</v>
+        <v>4856.6184659999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>1.349061</v>
+        <v>1.3490610000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="CA21" s="1">
-        <v>-913.502000</v>
+        <v>-913.50199999999995</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
         <v>4869.434381</v>
       </c>
       <c r="CD21" s="1">
-        <v>1.352621</v>
+        <v>1.3526210000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>1815.990000</v>
+        <v>1815.99</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1429.210000</v>
+        <v>-1429.21</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>4695.735146</v>
       </c>
       <c r="B22" s="1">
-        <v>1.304371</v>
+        <v>1.3043709999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>898.322000</v>
+        <v>898.322</v>
       </c>
       <c r="D22" s="1">
-        <v>-199.879000</v>
+        <v>-199.87899999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>4706.163533</v>
+        <v>4706.1635329999999</v>
       </c>
       <c r="G22" s="1">
-        <v>1.307268</v>
+        <v>1.3072680000000001</v>
       </c>
       <c r="H22" s="1">
-        <v>916.368000</v>
+        <v>916.36800000000005</v>
       </c>
       <c r="I22" s="1">
-        <v>-169.152000</v>
+        <v>-169.15199999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>4716.909822</v>
+        <v>4716.9098219999996</v>
       </c>
       <c r="L22" s="1">
-        <v>1.310253</v>
+        <v>1.3102529999999999</v>
       </c>
       <c r="M22" s="1">
-        <v>939.258000</v>
+        <v>939.25800000000004</v>
       </c>
       <c r="N22" s="1">
-        <v>-119.454000</v>
+        <v>-119.45399999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>4727.428976</v>
+        <v>4727.4289760000001</v>
       </c>
       <c r="Q22" s="1">
         <v>1.313175</v>
       </c>
       <c r="R22" s="1">
-        <v>945.966000</v>
+        <v>945.96600000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-103.241000</v>
+        <v>-103.241</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>4737.891090</v>
+        <v>4737.8910900000001</v>
       </c>
       <c r="V22" s="1">
-        <v>1.316081</v>
+        <v>1.3160810000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>952.386000</v>
+        <v>952.38599999999997</v>
       </c>
       <c r="X22" s="1">
-        <v>-88.165200</v>
+        <v>-88.165199999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>4748.368581</v>
+        <v>4748.3685809999997</v>
       </c>
       <c r="AA22" s="1">
         <v>1.318991</v>
       </c>
       <c r="AB22" s="1">
-        <v>959.411000</v>
+        <v>959.41099999999994</v>
       </c>
       <c r="AC22" s="1">
-        <v>-76.439100</v>
+        <v>-76.439099999999996</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>4758.840151</v>
+        <v>4758.8401510000003</v>
       </c>
       <c r="AF22" s="1">
-        <v>1.321900</v>
+        <v>1.3219000000000001</v>
       </c>
       <c r="AG22" s="1">
-        <v>964.019000</v>
+        <v>964.01900000000001</v>
       </c>
       <c r="AH22" s="1">
-        <v>-74.179000</v>
+        <v>-74.179000000000002</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>4769.351368</v>
+        <v>4769.3513679999996</v>
       </c>
       <c r="AK22" s="1">
-        <v>1.324820</v>
+        <v>1.3248200000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>971.106000</v>
+        <v>971.10599999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-78.956400</v>
+        <v>-78.956400000000002</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>4780.237065</v>
+        <v>4780.2370650000003</v>
       </c>
       <c r="AP22" s="1">
         <v>1.327844</v>
       </c>
       <c r="AQ22" s="1">
-        <v>979.185000</v>
+        <v>979.18499999999995</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.314900</v>
+        <v>-90.314899999999994</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>4791.350396</v>
+        <v>4791.3503959999998</v>
       </c>
       <c r="AU22" s="1">
-        <v>1.330931</v>
+        <v>1.3309310000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>988.976000</v>
+        <v>988.976</v>
       </c>
       <c r="AW22" s="1">
-        <v>-107.660000</v>
+        <v>-107.66</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>4802.765325</v>
+        <v>4802.7653250000003</v>
       </c>
       <c r="AZ22" s="1">
         <v>1.334101</v>
       </c>
       <c r="BA22" s="1">
-        <v>997.147000</v>
+        <v>997.14700000000005</v>
       </c>
       <c r="BB22" s="1">
-        <v>-122.997000</v>
+        <v>-122.997</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>4813.755991</v>
@@ -5786,91 +6202,91 @@
         <v>1.337154</v>
       </c>
       <c r="BF22" s="1">
-        <v>1034.980000</v>
+        <v>1034.98</v>
       </c>
       <c r="BG22" s="1">
-        <v>-193.834000</v>
+        <v>-193.834</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>4824.796127</v>
+        <v>4824.7961269999996</v>
       </c>
       <c r="BJ22" s="1">
-        <v>1.340221</v>
+        <v>1.3402210000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1099.820000</v>
+        <v>1099.82</v>
       </c>
       <c r="BL22" s="1">
-        <v>-309.502000</v>
+        <v>-309.50200000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>4835.474498</v>
+        <v>4835.4744979999996</v>
       </c>
       <c r="BO22" s="1">
-        <v>1.343187</v>
+        <v>1.3431869999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1205.250000</v>
+        <v>1205.25</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-493.444000</v>
+        <v>-493.44400000000002</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>4846.159316</v>
+        <v>4846.1593160000002</v>
       </c>
       <c r="BT22" s="1">
         <v>1.346155</v>
       </c>
       <c r="BU22" s="1">
-        <v>1324.390000</v>
+        <v>1324.39</v>
       </c>
       <c r="BV22" s="1">
-        <v>-696.607000</v>
+        <v>-696.60699999999997</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>4857.038565</v>
+        <v>4857.0385649999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>1.349177</v>
+        <v>1.3491770000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1459.330000</v>
+        <v>1459.33</v>
       </c>
       <c r="CA22" s="1">
-        <v>-913.444000</v>
+        <v>-913.44399999999996</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>4869.949925</v>
+        <v>4869.9499249999999</v>
       </c>
       <c r="CD22" s="1">
-        <v>1.352764</v>
+        <v>1.3527640000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1814.980000</v>
+        <v>1814.98</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1429.880000</v>
+        <v>-1429.88</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>4696.022825</v>
       </c>
@@ -5878,223 +6294,223 @@
         <v>1.304451</v>
       </c>
       <c r="C23" s="1">
-        <v>898.320000</v>
+        <v>898.32</v>
       </c>
       <c r="D23" s="1">
-        <v>-200.102000</v>
+        <v>-200.102</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>4706.433362</v>
+        <v>4706.4333619999998</v>
       </c>
       <c r="G23" s="1">
-        <v>1.307343</v>
+        <v>1.3073429999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>916.236000</v>
+        <v>916.23599999999999</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.932000</v>
+        <v>-168.93199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>4717.257053</v>
+        <v>4717.2570530000003</v>
       </c>
       <c r="L23" s="1">
         <v>1.310349</v>
       </c>
       <c r="M23" s="1">
-        <v>939.303000</v>
+        <v>939.303</v>
       </c>
       <c r="N23" s="1">
-        <v>-119.459000</v>
+        <v>-119.459</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>4727.773200</v>
+        <v>4727.7731999999996</v>
       </c>
       <c r="Q23" s="1">
-        <v>1.313270</v>
+        <v>1.3132699999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>945.923000</v>
+        <v>945.923</v>
       </c>
       <c r="S23" s="1">
-        <v>-103.268000</v>
+        <v>-103.268</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>4738.236802</v>
+        <v>4738.2368020000004</v>
       </c>
       <c r="V23" s="1">
-        <v>1.316177</v>
+        <v>1.3161769999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>952.406000</v>
+        <v>952.40599999999995</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.027900</v>
+        <v>-88.027900000000002</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>4749.066948</v>
+        <v>4749.0669479999997</v>
       </c>
       <c r="AA23" s="1">
-        <v>1.319185</v>
+        <v>1.3191850000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>959.436000</v>
+        <v>959.43600000000004</v>
       </c>
       <c r="AC23" s="1">
-        <v>-76.438000</v>
+        <v>-76.438000000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>4759.527078</v>
+        <v>4759.5270780000001</v>
       </c>
       <c r="AF23" s="1">
-        <v>1.322091</v>
+        <v>1.3220909999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>964.041000</v>
+        <v>964.04100000000005</v>
       </c>
       <c r="AH23" s="1">
-        <v>-74.164400</v>
+        <v>-74.164400000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>4769.701055</v>
+        <v>4769.7010550000005</v>
       </c>
       <c r="AK23" s="1">
-        <v>1.324917</v>
+        <v>1.3249169999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>971.121000</v>
+        <v>971.12099999999998</v>
       </c>
       <c r="AM23" s="1">
-        <v>-78.962800</v>
+        <v>-78.962800000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>4780.597130</v>
+        <v>4780.5971300000001</v>
       </c>
       <c r="AP23" s="1">
         <v>1.327944</v>
       </c>
       <c r="AQ23" s="1">
-        <v>979.201000</v>
+        <v>979.20100000000002</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.298500</v>
+        <v>-90.298500000000004</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>4791.714955</v>
+        <v>4791.7149550000004</v>
       </c>
       <c r="AU23" s="1">
         <v>1.331032</v>
       </c>
       <c r="AV23" s="1">
-        <v>988.986000</v>
+        <v>988.98599999999999</v>
       </c>
       <c r="AW23" s="1">
-        <v>-107.638000</v>
+        <v>-107.63800000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>4803.435452</v>
+        <v>4803.4354519999997</v>
       </c>
       <c r="AZ23" s="1">
-        <v>1.334288</v>
+        <v>1.3342879999999999</v>
       </c>
       <c r="BA23" s="1">
-        <v>997.136000</v>
+        <v>997.13599999999997</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.015000</v>
+        <v>-123.015</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>4814.206542</v>
+        <v>4814.2065419999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>1.337280</v>
+        <v>1.33728</v>
       </c>
       <c r="BF23" s="1">
-        <v>1035.010000</v>
+        <v>1035.01</v>
       </c>
       <c r="BG23" s="1">
-        <v>-193.823000</v>
+        <v>-193.82300000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>4825.242527</v>
+        <v>4825.2425270000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>1.340345</v>
+        <v>1.3403449999999999</v>
       </c>
       <c r="BK23" s="1">
-        <v>1099.790000</v>
+        <v>1099.79</v>
       </c>
       <c r="BL23" s="1">
-        <v>-309.518000</v>
+        <v>-309.51799999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>4835.899074</v>
+        <v>4835.8990739999999</v>
       </c>
       <c r="BO23" s="1">
         <v>1.343305</v>
       </c>
       <c r="BP23" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-493.411000</v>
+        <v>-493.411</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>4846.563060</v>
+        <v>4846.5630600000004</v>
       </c>
       <c r="BT23" s="1">
         <v>1.346268</v>
       </c>
       <c r="BU23" s="1">
-        <v>1324.420000</v>
+        <v>1324.42</v>
       </c>
       <c r="BV23" s="1">
-        <v>-696.612000</v>
+        <v>-696.61199999999997</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
         <v>4857.460196</v>
@@ -6103,754 +6519,754 @@
         <v>1.349294</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1459.400000</v>
+        <v>1459.4</v>
       </c>
       <c r="CA23" s="1">
-        <v>-913.465000</v>
+        <v>-913.46500000000003</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>4870.469731</v>
+        <v>4870.4697310000001</v>
       </c>
       <c r="CD23" s="1">
         <v>1.352908</v>
       </c>
       <c r="CE23" s="1">
-        <v>1815.730000</v>
+        <v>1815.73</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1430.690000</v>
+        <v>-1430.69</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>4696.366025</v>
+        <v>4696.3660250000003</v>
       </c>
       <c r="B24" s="1">
         <v>1.304546</v>
       </c>
       <c r="C24" s="1">
-        <v>898.361000</v>
+        <v>898.36099999999999</v>
       </c>
       <c r="D24" s="1">
-        <v>-200.049000</v>
+        <v>-200.04900000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>4706.777547</v>
+        <v>4706.7775469999997</v>
       </c>
       <c r="G24" s="1">
-        <v>1.307438</v>
+        <v>1.3074380000000001</v>
       </c>
       <c r="H24" s="1">
-        <v>916.097000</v>
+        <v>916.09699999999998</v>
       </c>
       <c r="I24" s="1">
-        <v>-169.079000</v>
+        <v>-169.07900000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>4717.601245</v>
+        <v>4717.6012449999998</v>
       </c>
       <c r="L24" s="1">
-        <v>1.310445</v>
+        <v>1.3104450000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>939.317000</v>
+        <v>939.31700000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-119.633000</v>
+        <v>-119.633</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>4728.460159</v>
+        <v>4728.4601590000002</v>
       </c>
       <c r="Q24" s="1">
         <v>1.313461</v>
       </c>
       <c r="R24" s="1">
-        <v>945.944000</v>
+        <v>945.94399999999996</v>
       </c>
       <c r="S24" s="1">
-        <v>-103.227000</v>
+        <v>-103.227</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>4738.921777</v>
+        <v>4738.9217769999996</v>
       </c>
       <c r="V24" s="1">
-        <v>1.316367</v>
+        <v>1.3163670000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>952.395000</v>
+        <v>952.39499999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-88.099800</v>
+        <v>-88.099800000000002</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>4749.414675</v>
       </c>
       <c r="AA24" s="1">
-        <v>1.319282</v>
+        <v>1.3192820000000001</v>
       </c>
       <c r="AB24" s="1">
-        <v>959.329000</v>
+        <v>959.32899999999995</v>
       </c>
       <c r="AC24" s="1">
-        <v>-76.410300</v>
+        <v>-76.410300000000007</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>4759.867333</v>
+        <v>4759.8673330000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>1.322185</v>
+        <v>1.3221849999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>964.020000</v>
+        <v>964.02</v>
       </c>
       <c r="AH24" s="1">
-        <v>-74.183000</v>
+        <v>-74.183000000000007</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>4770.047224</v>
+        <v>4770.0472239999999</v>
       </c>
       <c r="AK24" s="1">
         <v>1.325013</v>
       </c>
       <c r="AL24" s="1">
-        <v>971.132000</v>
+        <v>971.13199999999995</v>
       </c>
       <c r="AM24" s="1">
-        <v>-78.951600</v>
+        <v>-78.951599999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>4781.271722</v>
+        <v>4781.2717220000004</v>
       </c>
       <c r="AP24" s="1">
         <v>1.328131</v>
       </c>
       <c r="AQ24" s="1">
-        <v>979.211000</v>
+        <v>979.21100000000001</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.283100</v>
+        <v>-90.283100000000005</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>4792.392492</v>
+        <v>4792.3924919999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>1.331220</v>
+        <v>1.3312200000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>988.981000</v>
+        <v>988.98099999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-107.632000</v>
+        <v>-107.63200000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>4803.840668</v>
+        <v>4803.8406679999998</v>
       </c>
       <c r="AZ24" s="1">
-        <v>1.334400</v>
+        <v>1.3344</v>
       </c>
       <c r="BA24" s="1">
-        <v>997.167000</v>
+        <v>997.16700000000003</v>
       </c>
       <c r="BB24" s="1">
-        <v>-122.992000</v>
+        <v>-122.992</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>4814.566637</v>
+        <v>4814.5666369999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>1.337380</v>
+        <v>1.33738</v>
       </c>
       <c r="BF24" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG24" s="1">
-        <v>-193.830000</v>
+        <v>-193.83</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>4825.618526</v>
+        <v>4825.6185260000002</v>
       </c>
       <c r="BJ24" s="1">
-        <v>1.340450</v>
+        <v>1.3404499999999999</v>
       </c>
       <c r="BK24" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL24" s="1">
-        <v>-309.512000</v>
+        <v>-309.512</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>4836.296368</v>
+        <v>4836.2963680000003</v>
       </c>
       <c r="BO24" s="1">
-        <v>1.343416</v>
+        <v>1.3434159999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1205.220000</v>
+        <v>1205.22</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-493.418000</v>
+        <v>-493.41800000000001</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>4846.989618</v>
+        <v>4846.9896179999996</v>
       </c>
       <c r="BT24" s="1">
-        <v>1.346386</v>
+        <v>1.3463860000000001</v>
       </c>
       <c r="BU24" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="BV24" s="1">
-        <v>-696.631000</v>
+        <v>-696.63099999999997</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>4857.915028</v>
+        <v>4857.9150280000003</v>
       </c>
       <c r="BY24" s="1">
         <v>1.349421</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1459.410000</v>
+        <v>1459.41</v>
       </c>
       <c r="CA24" s="1">
-        <v>-913.490000</v>
+        <v>-913.49</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>4870.988578</v>
+        <v>4870.9885780000004</v>
       </c>
       <c r="CD24" s="1">
-        <v>1.353052</v>
+        <v>1.3530519999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1815.680000</v>
+        <v>1815.68</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1430.750000</v>
+        <v>-1430.75</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>4696.706777</v>
+        <v>4696.7067770000003</v>
       </c>
       <c r="B25" s="1">
-        <v>1.304641</v>
+        <v>1.3046409999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>898.310000</v>
+        <v>898.31</v>
       </c>
       <c r="D25" s="1">
-        <v>-200.063000</v>
+        <v>-200.06299999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>4707.121804</v>
+        <v>4707.1218040000003</v>
       </c>
       <c r="G25" s="1">
         <v>1.307534</v>
       </c>
       <c r="H25" s="1">
-        <v>916.271000</v>
+        <v>916.27099999999996</v>
       </c>
       <c r="I25" s="1">
-        <v>-169.036000</v>
+        <v>-169.036</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>4718.293199</v>
+        <v>4718.2931989999997</v>
       </c>
       <c r="L25" s="1">
-        <v>1.310637</v>
+        <v>1.3106370000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>939.352000</v>
+        <v>939.35199999999998</v>
       </c>
       <c r="N25" s="1">
-        <v>-119.583000</v>
+        <v>-119.583</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>4728.821775</v>
+        <v>4728.8217750000003</v>
       </c>
       <c r="Q25" s="1">
-        <v>1.313562</v>
+        <v>1.3135619999999999</v>
       </c>
       <c r="R25" s="1">
-        <v>945.975000</v>
+        <v>945.97500000000002</v>
       </c>
       <c r="S25" s="1">
-        <v>-103.208000</v>
+        <v>-103.208</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>4739.266033</v>
+        <v>4739.2660329999999</v>
       </c>
       <c r="V25" s="1">
-        <v>1.316463</v>
+        <v>1.3164629999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>952.303000</v>
+        <v>952.303</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.084300</v>
+        <v>-88.084299999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>4749.765315</v>
+        <v>4749.7653149999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>1.319379</v>
+        <v>1.3193790000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>959.405000</v>
+        <v>959.40499999999997</v>
       </c>
       <c r="AC25" s="1">
-        <v>-76.370600</v>
+        <v>-76.370599999999996</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>4760.211557</v>
+        <v>4760.2115569999996</v>
       </c>
       <c r="AF25" s="1">
         <v>1.322281</v>
       </c>
       <c r="AG25" s="1">
-        <v>964.034000</v>
+        <v>964.03399999999999</v>
       </c>
       <c r="AH25" s="1">
-        <v>-74.167600</v>
+        <v>-74.167599999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>4770.710871</v>
+        <v>4770.7108710000002</v>
       </c>
       <c r="AK25" s="1">
         <v>1.325197</v>
       </c>
       <c r="AL25" s="1">
-        <v>971.137000</v>
+        <v>971.13699999999994</v>
       </c>
       <c r="AM25" s="1">
-        <v>-78.968200</v>
+        <v>-78.968199999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>4781.700233</v>
+        <v>4781.7002329999996</v>
       </c>
       <c r="AP25" s="1">
-        <v>1.328250</v>
+        <v>1.3282499999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>979.200000</v>
+        <v>979.2</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.299800</v>
+        <v>-90.299800000000005</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>4792.844843</v>
+        <v>4792.8448429999999</v>
       </c>
       <c r="AU25" s="1">
-        <v>1.331346</v>
+        <v>1.3313459999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>988.975000</v>
+        <v>988.97500000000002</v>
       </c>
       <c r="AW25" s="1">
-        <v>-107.632000</v>
+        <v>-107.63200000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>4804.227531</v>
+        <v>4804.2275310000005</v>
       </c>
       <c r="AZ25" s="1">
         <v>1.334508</v>
       </c>
       <c r="BA25" s="1">
-        <v>997.143000</v>
+        <v>997.14300000000003</v>
       </c>
       <c r="BB25" s="1">
-        <v>-122.986000</v>
+        <v>-122.986</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>4814.928717</v>
+        <v>4814.9287169999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>1.337480</v>
+        <v>1.33748</v>
       </c>
       <c r="BF25" s="1">
-        <v>1035.000000</v>
+        <v>1035</v>
       </c>
       <c r="BG25" s="1">
-        <v>-193.818000</v>
+        <v>-193.81800000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>4825.990991</v>
+        <v>4825.9909909999997</v>
       </c>
       <c r="BJ25" s="1">
-        <v>1.340553</v>
+        <v>1.3405530000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1099.810000</v>
+        <v>1099.81</v>
       </c>
       <c r="BL25" s="1">
-        <v>-309.521000</v>
+        <v>-309.52100000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>4836.719489</v>
+        <v>4836.7194890000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>1.343533</v>
+        <v>1.3435330000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1205.260000</v>
+        <v>1205.26</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-493.426000</v>
+        <v>-493.42599999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>4847.404275</v>
+        <v>4847.4042749999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>1.346501</v>
+        <v>1.3465009999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>1324.430000</v>
+        <v>1324.43</v>
       </c>
       <c r="BV25" s="1">
-        <v>-696.655000</v>
+        <v>-696.65499999999997</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>4858.361930</v>
+        <v>4858.36193</v>
       </c>
       <c r="BY25" s="1">
         <v>1.349545</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1459.390000</v>
+        <v>1459.39</v>
       </c>
       <c r="CA25" s="1">
-        <v>-913.575000</v>
+        <v>-913.57500000000005</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>4871.539106</v>
+        <v>4871.5391060000002</v>
       </c>
       <c r="CD25" s="1">
         <v>1.353205</v>
       </c>
       <c r="CE25" s="1">
-        <v>1815.050000</v>
+        <v>1815.05</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1430.090000</v>
+        <v>-1430.09</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>4697.387785</v>
+        <v>4697.3877849999999</v>
       </c>
       <c r="B26" s="1">
-        <v>1.304830</v>
+        <v>1.3048299999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>898.246000</v>
+        <v>898.24599999999998</v>
       </c>
       <c r="D26" s="1">
-        <v>-200.084000</v>
+        <v>-200.084</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>4707.810251</v>
+        <v>4707.8102509999999</v>
       </c>
       <c r="G26" s="1">
         <v>1.307725</v>
       </c>
       <c r="H26" s="1">
-        <v>916.316000</v>
+        <v>916.31600000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-169.141000</v>
+        <v>-169.14099999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>4718.638875</v>
+        <v>4718.6388749999996</v>
       </c>
       <c r="L26" s="1">
-        <v>1.310733</v>
+        <v>1.3107329999999999</v>
       </c>
       <c r="M26" s="1">
-        <v>939.295000</v>
+        <v>939.29499999999996</v>
       </c>
       <c r="N26" s="1">
-        <v>-119.622000</v>
+        <v>-119.622</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>4729.171423</v>
+        <v>4729.1714229999998</v>
       </c>
       <c r="Q26" s="1">
-        <v>1.313659</v>
+        <v>1.3136589999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>945.972000</v>
+        <v>945.97199999999998</v>
       </c>
       <c r="S26" s="1">
-        <v>-103.223000</v>
+        <v>-103.223</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>4739.608768</v>
+        <v>4739.6087680000001</v>
       </c>
       <c r="V26" s="1">
-        <v>1.316558</v>
+        <v>1.3165579999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>952.395000</v>
+        <v>952.39499999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.064100</v>
+        <v>-88.064099999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>4750.413618</v>
+        <v>4750.4136179999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>1.319559</v>
+        <v>1.3195589999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>959.408000</v>
+        <v>959.40800000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-76.416100</v>
+        <v>-76.4161</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>4760.864788</v>
+        <v>4760.8647879999999</v>
       </c>
       <c r="AF26" s="1">
         <v>1.322462</v>
       </c>
       <c r="AG26" s="1">
-        <v>964.039000</v>
+        <v>964.03899999999999</v>
       </c>
       <c r="AH26" s="1">
-        <v>-74.141200</v>
+        <v>-74.141199999999998</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>4771.095271</v>
+        <v>4771.0952710000001</v>
       </c>
       <c r="AK26" s="1">
         <v>1.325304</v>
       </c>
       <c r="AL26" s="1">
-        <v>971.153000</v>
+        <v>971.15300000000002</v>
       </c>
       <c r="AM26" s="1">
-        <v>-78.975800</v>
+        <v>-78.975800000000007</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>4782.059834</v>
+        <v>4782.0598339999997</v>
       </c>
       <c r="AP26" s="1">
-        <v>1.328350</v>
+        <v>1.3283499999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>979.195000</v>
+        <v>979.19500000000005</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.291600</v>
+        <v>-90.291600000000003</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>4793.207919</v>
+        <v>4793.2079190000004</v>
       </c>
       <c r="AU26" s="1">
         <v>1.331447</v>
       </c>
       <c r="AV26" s="1">
-        <v>988.996000</v>
+        <v>988.99599999999998</v>
       </c>
       <c r="AW26" s="1">
-        <v>-107.653000</v>
+        <v>-107.65300000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>4804.590106</v>
+        <v>4804.5901059999997</v>
       </c>
       <c r="AZ26" s="1">
         <v>1.334608</v>
       </c>
       <c r="BA26" s="1">
-        <v>997.142000</v>
+        <v>997.14200000000005</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.009000</v>
+        <v>-123.009</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>4815.345356</v>
+        <v>4815.3453559999998</v>
       </c>
       <c r="BE26" s="1">
         <v>1.337596</v>
       </c>
       <c r="BF26" s="1">
-        <v>1034.990000</v>
+        <v>1034.99</v>
       </c>
       <c r="BG26" s="1">
-        <v>-193.833000</v>
+        <v>-193.833</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
         <v>4826.410605</v>
       </c>
       <c r="BJ26" s="1">
-        <v>1.340670</v>
+        <v>1.34067</v>
       </c>
       <c r="BK26" s="1">
-        <v>1099.800000</v>
+        <v>1099.8</v>
       </c>
       <c r="BL26" s="1">
-        <v>-309.512000</v>
+        <v>-309.512</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>4837.114768</v>
+        <v>4837.1147680000004</v>
       </c>
       <c r="BO26" s="1">
-        <v>1.343643</v>
+        <v>1.3436429999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1205.230000</v>
+        <v>1205.23</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-493.429000</v>
+        <v>-493.42899999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>4847.819673</v>
@@ -6859,45 +7275,46 @@
         <v>1.346617</v>
       </c>
       <c r="BU26" s="1">
-        <v>1324.470000</v>
+        <v>1324.47</v>
       </c>
       <c r="BV26" s="1">
-        <v>-696.683000</v>
+        <v>-696.68299999999999</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
         <v>4858.805351</v>
       </c>
       <c r="BY26" s="1">
-        <v>1.349668</v>
+        <v>1.3496680000000001</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1459.320000</v>
+        <v>1459.32</v>
       </c>
       <c r="CA26" s="1">
-        <v>-913.523000</v>
+        <v>-913.52300000000002</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>4872.068840</v>
+        <v>4872.0688399999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>1.353352</v>
+        <v>1.3533520000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1816.000000</v>
+        <v>1816</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1430.360000</v>
+        <v>-1430.36</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>